--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_13_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2042237.227415633</v>
+        <v>-2044153.964328908</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3985983.633321077</v>
+        <v>3985983.633321073</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,67 +1215,67 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.7465913262578567</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>5.309829763041574</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E9" t="n">
+      <c r="W9" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
+      <c r="X9" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="U9" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1291,58 +1291,58 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.334980354192922</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="D10" t="n">
+      <c r="R10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="T10" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>337.3770810744136</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>319.9161311819407</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>309.3262810316161</v>
       </c>
       <c r="E11" t="n">
-        <v>336.5736094831948</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>367.2758217743497</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>266.7723150791639</v>
       </c>
       <c r="I11" t="n">
-        <v>62.17797249471407</v>
+        <v>62.17797249471415</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>102.8171484773946</v>
+        <v>102.8171484773947</v>
       </c>
       <c r="T11" t="n">
         <v>166.050484798417</v>
@@ -1427,16 +1427,16 @@
         <v>205.7752799066321</v>
       </c>
       <c r="V11" t="n">
-        <v>282.3954978810679</v>
+        <v>282.395497881068</v>
       </c>
       <c r="W11" t="n">
-        <v>303.884208128346</v>
+        <v>303.8842081283461</v>
       </c>
       <c r="X11" t="n">
-        <v>31.5603678276655</v>
+        <v>324.3743400894022</v>
       </c>
       <c r="Y11" t="n">
-        <v>340.8811780669866</v>
+        <v>193.2789908444871</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>134.4752195928704</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>103.2587124291454</v>
+        <v>103.2587124291455</v>
       </c>
       <c r="E13" t="n">
-        <v>101.0772020575022</v>
+        <v>45.19817076234493</v>
       </c>
       <c r="F13" t="n">
-        <v>100.0642874338643</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>110.3477717281575</v>
+        <v>121.4364790917051</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>74.07441566739161</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>78.08189946229365</v>
+        <v>78.08189946229373</v>
       </c>
       <c r="S13" t="n">
-        <v>157.7865014285815</v>
+        <v>157.7865014285816</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>177.4712138527346</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>206.780882734761</v>
+        <v>206.7808827347611</v>
       </c>
       <c r="W13" t="n">
-        <v>241.166237747524</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.3528947999702</v>
+        <v>180.3528947999703</v>
       </c>
       <c r="Y13" t="n">
-        <v>173.2278927630278</v>
+        <v>173.2278927630279</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.598110520118</v>
+        <v>335.5981105201181</v>
       </c>
       <c r="C14" t="n">
-        <v>318.137160627645</v>
+        <v>318.1371606276451</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.5473104773205</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359.7403145983489</v>
+        <v>214.9804488093555</v>
       </c>
       <c r="G14" t="n">
-        <v>365.4968512200541</v>
+        <v>365.4968512200542</v>
       </c>
       <c r="H14" t="n">
-        <v>264.9933445248682</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>60.39900194041852</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>101.0381779230991</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>164.2715142441214</v>
@@ -1664,13 +1664,13 @@
         <v>203.9963093523365</v>
       </c>
       <c r="V14" t="n">
-        <v>16.97344762671135</v>
+        <v>280.6165273267724</v>
       </c>
       <c r="W14" t="n">
         <v>302.1052375740505</v>
       </c>
       <c r="X14" t="n">
-        <v>322.5953695351065</v>
+        <v>322.5953695351066</v>
       </c>
       <c r="Y14" t="n">
         <v>339.1022075126911</v>
@@ -1765,25 +1765,25 @@
         <v>132.6962490385748</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>120.1110899552654</v>
       </c>
       <c r="D16" t="n">
         <v>101.4797418748499</v>
       </c>
       <c r="E16" t="n">
-        <v>99.29823150320667</v>
+        <v>99.29823150320669</v>
       </c>
       <c r="F16" t="n">
-        <v>4.604661287225069</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>119.6575085374095</v>
       </c>
       <c r="H16" t="n">
-        <v>104.4424467751888</v>
+        <v>104.4424467751889</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>72.29544511309601</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>76.30292890799811</v>
+        <v>76.30292890799814</v>
       </c>
       <c r="S16" t="n">
-        <v>156.0075308742859</v>
+        <v>156.007530874286</v>
       </c>
       <c r="T16" t="n">
-        <v>175.692243298439</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>239.1179669579818</v>
+        <v>107.3508279378747</v>
       </c>
       <c r="V16" t="n">
         <v>205.0019121804655</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>275.1991085796994</v>
+        <v>275.1991085796995</v>
       </c>
       <c r="C17" t="n">
-        <v>257.7381586872264</v>
+        <v>257.7381586872265</v>
       </c>
       <c r="D17" t="n">
-        <v>247.1483085369018</v>
+        <v>247.1483085369019</v>
       </c>
       <c r="E17" t="n">
-        <v>274.3956369884806</v>
+        <v>274.3956369884807</v>
       </c>
       <c r="F17" t="n">
-        <v>299.3413126579303</v>
+        <v>299.3413126579304</v>
       </c>
       <c r="G17" t="n">
-        <v>305.0978492796355</v>
+        <v>305.0978492796356</v>
       </c>
       <c r="H17" t="n">
-        <v>204.5943425844496</v>
+        <v>204.5943425844497</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.63917598268043</v>
+        <v>40.63917598268049</v>
       </c>
       <c r="T17" t="n">
-        <v>103.8725123037028</v>
+        <v>103.8725123037029</v>
       </c>
       <c r="U17" t="n">
-        <v>143.597307411917</v>
+        <v>143.5973074119179</v>
       </c>
       <c r="V17" t="n">
         <v>220.2175253863538</v>
@@ -1907,7 +1907,7 @@
         <v>241.7062356336319</v>
       </c>
       <c r="X17" t="n">
-        <v>262.1963675946879</v>
+        <v>262.196367594688</v>
       </c>
       <c r="Y17" t="n">
         <v>278.7032055722725</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.29724709815618</v>
+        <v>72.29724709815623</v>
       </c>
       <c r="C19" t="n">
-        <v>59.71208801484671</v>
+        <v>59.71208801484677</v>
       </c>
       <c r="D19" t="n">
-        <v>41.08073993443124</v>
+        <v>41.08073993443129</v>
       </c>
       <c r="E19" t="n">
-        <v>38.89922956278805</v>
+        <v>38.89922956278811</v>
       </c>
       <c r="F19" t="n">
-        <v>37.88631493915013</v>
+        <v>37.88631493915018</v>
       </c>
       <c r="G19" t="n">
-        <v>59.25850659699083</v>
+        <v>59.25850659699088</v>
       </c>
       <c r="H19" t="n">
-        <v>44.04344483477024</v>
+        <v>44.0434448347703</v>
       </c>
       <c r="I19" t="n">
-        <v>11.89644317267736</v>
+        <v>11.89644317267742</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.90392696757949</v>
+        <v>15.90392696757955</v>
       </c>
       <c r="S19" t="n">
-        <v>95.60852893386732</v>
+        <v>95.60852893386738</v>
       </c>
       <c r="T19" t="n">
         <v>115.2932413580204</v>
@@ -2065,7 +2065,7 @@
         <v>178.9882652528099</v>
       </c>
       <c r="X19" t="n">
-        <v>118.174922305256</v>
+        <v>118.1749223052561</v>
       </c>
       <c r="Y19" t="n">
         <v>111.0499202683137</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>275.1991085796994</v>
+        <v>275.1991085796995</v>
       </c>
       <c r="C20" t="n">
-        <v>257.7381586872264</v>
+        <v>257.7381586872265</v>
       </c>
       <c r="D20" t="n">
-        <v>247.1483085369018</v>
+        <v>247.1483085369019</v>
       </c>
       <c r="E20" t="n">
-        <v>274.3956369884806</v>
+        <v>274.3956369884807</v>
       </c>
       <c r="F20" t="n">
-        <v>299.3413126579303</v>
+        <v>299.3413126579304</v>
       </c>
       <c r="G20" t="n">
-        <v>305.0978492796355</v>
+        <v>305.0978492796356</v>
       </c>
       <c r="H20" t="n">
-        <v>204.5943425844496</v>
+        <v>204.5943425844497</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.63917598268044</v>
+        <v>40.63917598268049</v>
       </c>
       <c r="T20" t="n">
-        <v>103.8725123037028</v>
+        <v>103.8725123037029</v>
       </c>
       <c r="U20" t="n">
         <v>143.5973074119179</v>
@@ -2144,7 +2144,7 @@
         <v>241.7062356336319</v>
       </c>
       <c r="X20" t="n">
-        <v>262.1963675946879</v>
+        <v>262.196367594688</v>
       </c>
       <c r="Y20" t="n">
         <v>278.7032055722725</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.29724709815618</v>
+        <v>72.29724709815623</v>
       </c>
       <c r="C22" t="n">
-        <v>59.71208801484671</v>
+        <v>59.71208801484677</v>
       </c>
       <c r="D22" t="n">
-        <v>41.08073993443124</v>
+        <v>41.08073993443129</v>
       </c>
       <c r="E22" t="n">
-        <v>38.89922956278805</v>
+        <v>38.89922956278811</v>
       </c>
       <c r="F22" t="n">
-        <v>37.88631493915013</v>
+        <v>37.88631493915018</v>
       </c>
       <c r="G22" t="n">
-        <v>59.25850659699083</v>
+        <v>59.25850659699088</v>
       </c>
       <c r="H22" t="n">
-        <v>44.04344483477024</v>
+        <v>44.0434448347703</v>
       </c>
       <c r="I22" t="n">
-        <v>11.89644317267736</v>
+        <v>11.89644317267742</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.90392696757949</v>
+        <v>15.90392696757955</v>
       </c>
       <c r="S22" t="n">
-        <v>95.60852893386732</v>
+        <v>95.60852893386738</v>
       </c>
       <c r="T22" t="n">
         <v>115.2932413580204</v>
@@ -2302,7 +2302,7 @@
         <v>178.9882652528099</v>
       </c>
       <c r="X22" t="n">
-        <v>118.174922305256</v>
+        <v>118.1749223052561</v>
       </c>
       <c r="Y22" t="n">
         <v>111.0499202683137</v>
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>275.1991085796994</v>
+        <v>275.1991085796995</v>
       </c>
       <c r="C23" t="n">
-        <v>257.7381586872264</v>
+        <v>257.7381586872265</v>
       </c>
       <c r="D23" t="n">
-        <v>247.1483085369018</v>
+        <v>247.1483085369019</v>
       </c>
       <c r="E23" t="n">
-        <v>274.3956369884806</v>
+        <v>274.3956369884807</v>
       </c>
       <c r="F23" t="n">
-        <v>299.3413126579303</v>
+        <v>299.3413126579304</v>
       </c>
       <c r="G23" t="n">
-        <v>305.0978492796355</v>
+        <v>305.0978492796356</v>
       </c>
       <c r="H23" t="n">
-        <v>204.5943425844496</v>
+        <v>204.5943425844497</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.63917598268044</v>
+        <v>40.6391759826805</v>
       </c>
       <c r="T23" t="n">
-        <v>103.8725123037028</v>
+        <v>103.8725123037029</v>
       </c>
       <c r="U23" t="n">
         <v>143.5973074119179</v>
@@ -2381,7 +2381,7 @@
         <v>241.7062356336319</v>
       </c>
       <c r="X23" t="n">
-        <v>262.1963675946879</v>
+        <v>262.196367594688</v>
       </c>
       <c r="Y23" t="n">
         <v>278.7032055722725</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.29724709815618</v>
+        <v>72.29724709815623</v>
       </c>
       <c r="C25" t="n">
-        <v>59.71208801484671</v>
+        <v>59.71208801484677</v>
       </c>
       <c r="D25" t="n">
-        <v>41.08073993443124</v>
+        <v>41.08073993443129</v>
       </c>
       <c r="E25" t="n">
-        <v>38.89922956278805</v>
+        <v>38.89922956278811</v>
       </c>
       <c r="F25" t="n">
-        <v>37.88631493915013</v>
+        <v>37.88631493915018</v>
       </c>
       <c r="G25" t="n">
-        <v>59.25850659699083</v>
+        <v>59.25850659699088</v>
       </c>
       <c r="H25" t="n">
-        <v>44.04344483477024</v>
+        <v>44.0434448347703</v>
       </c>
       <c r="I25" t="n">
-        <v>11.89644317267736</v>
+        <v>11.89644317267742</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.90392696757949</v>
+        <v>15.90392696757955</v>
       </c>
       <c r="S25" t="n">
-        <v>95.60852893386732</v>
+        <v>95.60852893386738</v>
       </c>
       <c r="T25" t="n">
         <v>115.2932413580204</v>
@@ -2539,7 +2539,7 @@
         <v>178.9882652528099</v>
       </c>
       <c r="X25" t="n">
-        <v>118.174922305256</v>
+        <v>118.1749223052561</v>
       </c>
       <c r="Y25" t="n">
         <v>111.0499202683137</v>
@@ -2555,7 +2555,7 @@
         <v>301.047848337766</v>
       </c>
       <c r="C26" t="n">
-        <v>283.586898445293</v>
+        <v>283.5868984452931</v>
       </c>
       <c r="D26" t="n">
         <v>272.9970482949684</v>
@@ -2573,7 +2573,7 @@
         <v>230.4430823425162</v>
       </c>
       <c r="I26" t="n">
-        <v>25.8487397580665</v>
+        <v>25.84873975806651</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.48791574074703</v>
+        <v>66.48791574074704</v>
       </c>
       <c r="T26" t="n">
         <v>129.7212520617694</v>
@@ -2621,7 +2621,7 @@
         <v>288.0451073527545</v>
       </c>
       <c r="Y26" t="n">
-        <v>304.551945330339</v>
+        <v>304.5519453303391</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.14598685622276</v>
+        <v>98.14598685622278</v>
       </c>
       <c r="C28" t="n">
-        <v>85.5608277729133</v>
+        <v>85.56082777291331</v>
       </c>
       <c r="D28" t="n">
-        <v>66.92947969249782</v>
+        <v>66.92947969249784</v>
       </c>
       <c r="E28" t="n">
-        <v>64.74796932085464</v>
+        <v>64.74796932085465</v>
       </c>
       <c r="F28" t="n">
-        <v>63.73505469721671</v>
+        <v>63.73505469721673</v>
       </c>
       <c r="G28" t="n">
-        <v>85.1072463550574</v>
+        <v>85.10724635505741</v>
       </c>
       <c r="H28" t="n">
-        <v>69.89218459283681</v>
+        <v>69.89218459283683</v>
       </c>
       <c r="I28" t="n">
-        <v>37.74518293074395</v>
+        <v>37.74518293074397</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.75266672564608</v>
+        <v>41.75266672564609</v>
       </c>
       <c r="S28" t="n">
         <v>121.4572686919339</v>
       </c>
       <c r="T28" t="n">
-        <v>141.1419811160869</v>
+        <v>141.141981116087</v>
       </c>
       <c r="U28" t="n">
         <v>204.5677047756298</v>
@@ -2779,7 +2779,7 @@
         <v>144.0236620633226</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.8986600263802</v>
+        <v>136.8986600263803</v>
       </c>
     </row>
     <row r="29">
@@ -2795,16 +2795,16 @@
         <v>285.3658689995885</v>
       </c>
       <c r="D29" t="n">
-        <v>274.776018849264</v>
+        <v>274.7760188492639</v>
       </c>
       <c r="E29" t="n">
         <v>302.0233473008428</v>
       </c>
       <c r="F29" t="n">
-        <v>326.9690229702925</v>
+        <v>326.9690229702924</v>
       </c>
       <c r="G29" t="n">
-        <v>332.7255595919977</v>
+        <v>332.7255595919976</v>
       </c>
       <c r="H29" t="n">
         <v>232.2220528968118</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>68.26688629504257</v>
+        <v>68.26688629504258</v>
       </c>
       <c r="T29" t="n">
         <v>131.5002226160649</v>
@@ -2852,10 +2852,10 @@
         <v>247.8452356987159</v>
       </c>
       <c r="W29" t="n">
-        <v>269.3339459459941</v>
+        <v>269.333945945994</v>
       </c>
       <c r="X29" t="n">
-        <v>289.8240779070501</v>
+        <v>289.82407790705</v>
       </c>
       <c r="Y29" t="n">
         <v>306.3309158846346</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>11.45565786470088</v>
+        <v>11.4556578647009</v>
       </c>
       <c r="S30" t="n">
         <v>145.146457584522</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.92495741051832</v>
+        <v>99.9249574105183</v>
       </c>
       <c r="C31" t="n">
-        <v>87.33979832720885</v>
+        <v>87.33979832720884</v>
       </c>
       <c r="D31" t="n">
-        <v>68.70845024679338</v>
+        <v>68.70845024679336</v>
       </c>
       <c r="E31" t="n">
-        <v>66.52693987515019</v>
+        <v>66.52693987515018</v>
       </c>
       <c r="F31" t="n">
-        <v>65.51402525151227</v>
+        <v>65.51402525151225</v>
       </c>
       <c r="G31" t="n">
-        <v>86.88621690935295</v>
+        <v>44.47413571850426</v>
       </c>
       <c r="H31" t="n">
-        <v>29.25907395628396</v>
+        <v>71.67115514713235</v>
       </c>
       <c r="I31" t="n">
-        <v>39.52415348503949</v>
+        <v>39.52415348503948</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>43.53163727994163</v>
+        <v>43.53163727994162</v>
       </c>
       <c r="S31" t="n">
-        <v>123.2362392462295</v>
+        <v>123.2362392462294</v>
       </c>
       <c r="T31" t="n">
         <v>142.9209516703825</v>
       </c>
       <c r="U31" t="n">
-        <v>206.3466753299254</v>
+        <v>206.3466753299253</v>
       </c>
       <c r="V31" t="n">
         <v>172.230620552409</v>
@@ -3013,7 +3013,7 @@
         <v>206.615975565172</v>
       </c>
       <c r="X31" t="n">
-        <v>145.8026326176182</v>
+        <v>145.8026326176181</v>
       </c>
       <c r="Y31" t="n">
         <v>138.6776305806758</v>
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>301.0478483377661</v>
+        <v>301.047848337766</v>
       </c>
       <c r="C32" t="n">
         <v>283.5868984452931</v>
       </c>
       <c r="D32" t="n">
-        <v>272.9970482949685</v>
+        <v>272.9970482949684</v>
       </c>
       <c r="E32" t="n">
-        <v>300.2443767465473</v>
+        <v>300.2443767465472</v>
       </c>
       <c r="F32" t="n">
         <v>325.1900524159969</v>
       </c>
       <c r="G32" t="n">
-        <v>330.9465890377022</v>
+        <v>330.9465890377021</v>
       </c>
       <c r="H32" t="n">
-        <v>230.4430823425163</v>
+        <v>230.4430823425162</v>
       </c>
       <c r="I32" t="n">
         <v>25.84873975806651</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.48791574074703</v>
+        <v>66.48791574074704</v>
       </c>
       <c r="T32" t="n">
         <v>129.7212520617694</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>11.45565786470088</v>
+        <v>11.4556578647009</v>
       </c>
       <c r="S33" t="n">
         <v>145.146457584522</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>98.14598685622279</v>
+        <v>98.14598685622278</v>
       </c>
       <c r="C34" t="n">
-        <v>85.56082777291333</v>
+        <v>85.56082777291331</v>
       </c>
       <c r="D34" t="n">
-        <v>66.92947969249785</v>
+        <v>66.92947969249784</v>
       </c>
       <c r="E34" t="n">
-        <v>64.74796932085466</v>
+        <v>64.74796932085465</v>
       </c>
       <c r="F34" t="n">
-        <v>63.73505469721674</v>
+        <v>63.73505469721673</v>
       </c>
       <c r="G34" t="n">
-        <v>85.10724635505743</v>
+        <v>85.10724635505741</v>
       </c>
       <c r="H34" t="n">
-        <v>69.89218459283684</v>
+        <v>69.89218459283683</v>
       </c>
       <c r="I34" t="n">
         <v>37.74518293074397</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.75266672564611</v>
+        <v>41.75266672564609</v>
       </c>
       <c r="S34" t="n">
         <v>121.4572686919339</v>
@@ -3241,7 +3241,7 @@
         <v>141.141981116087</v>
       </c>
       <c r="U34" t="n">
-        <v>204.5677047756299</v>
+        <v>204.5677047756298</v>
       </c>
       <c r="V34" t="n">
         <v>170.4516499981135</v>
@@ -3250,7 +3250,7 @@
         <v>204.8370050108765</v>
       </c>
       <c r="X34" t="n">
-        <v>144.0236620633227</v>
+        <v>144.0236620633226</v>
       </c>
       <c r="Y34" t="n">
         <v>136.8986600263803</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>301.0478483377661</v>
+        <v>301.047848337766</v>
       </c>
       <c r="C35" t="n">
         <v>283.5868984452931</v>
       </c>
       <c r="D35" t="n">
-        <v>272.9970482949685</v>
+        <v>272.9970482949684</v>
       </c>
       <c r="E35" t="n">
-        <v>300.2443767465473</v>
+        <v>300.2443767465472</v>
       </c>
       <c r="F35" t="n">
         <v>325.1900524159969</v>
       </c>
       <c r="G35" t="n">
-        <v>330.9465890377022</v>
+        <v>330.9465890377021</v>
       </c>
       <c r="H35" t="n">
-        <v>230.4430823425163</v>
+        <v>230.4430823425162</v>
       </c>
       <c r="I35" t="n">
-        <v>25.84873975806653</v>
+        <v>25.84873975806651</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>11.45565786470088</v>
+        <v>11.4556578647009</v>
       </c>
       <c r="S36" t="n">
         <v>145.146457584522</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>98.14598685622281</v>
+        <v>98.14598685622278</v>
       </c>
       <c r="C37" t="n">
-        <v>85.56082777291334</v>
+        <v>85.56082777291331</v>
       </c>
       <c r="D37" t="n">
-        <v>66.92947969249786</v>
+        <v>66.92947969249784</v>
       </c>
       <c r="E37" t="n">
-        <v>64.74796932085468</v>
+        <v>64.74796932085465</v>
       </c>
       <c r="F37" t="n">
-        <v>63.73505469721675</v>
+        <v>63.73505469721673</v>
       </c>
       <c r="G37" t="n">
-        <v>85.10724635505744</v>
+        <v>85.10724635505743</v>
       </c>
       <c r="H37" t="n">
-        <v>69.89218459283686</v>
+        <v>69.89218459283684</v>
       </c>
       <c r="I37" t="n">
-        <v>37.74518293074398</v>
+        <v>37.74518293074396</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.75266672564612</v>
+        <v>41.75266672564609</v>
       </c>
       <c r="S37" t="n">
         <v>121.4572686919339</v>
@@ -3478,7 +3478,7 @@
         <v>141.141981116087</v>
       </c>
       <c r="U37" t="n">
-        <v>204.5677047756299</v>
+        <v>204.5677047756298</v>
       </c>
       <c r="V37" t="n">
         <v>170.4516499981135</v>
@@ -3487,7 +3487,7 @@
         <v>204.8370050108765</v>
       </c>
       <c r="X37" t="n">
-        <v>144.0236620633227</v>
+        <v>144.0236620633226</v>
       </c>
       <c r="Y37" t="n">
         <v>136.8986600263803</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>301.0478483377661</v>
+        <v>301.047848337766</v>
       </c>
       <c r="C38" t="n">
         <v>283.5868984452931</v>
       </c>
       <c r="D38" t="n">
-        <v>272.9970482949685</v>
+        <v>272.9970482949684</v>
       </c>
       <c r="E38" t="n">
-        <v>300.2443767465473</v>
+        <v>300.2443767465472</v>
       </c>
       <c r="F38" t="n">
         <v>325.1900524159969</v>
       </c>
       <c r="G38" t="n">
-        <v>330.9465890377022</v>
+        <v>330.9465890377021</v>
       </c>
       <c r="H38" t="n">
-        <v>230.4430823425163</v>
+        <v>230.4430823425162</v>
       </c>
       <c r="I38" t="n">
-        <v>25.84873975806653</v>
+        <v>25.84873975806651</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>11.45565786470088</v>
+        <v>11.4556578647009</v>
       </c>
       <c r="S39" t="n">
         <v>145.146457584522</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>98.14598685622281</v>
+        <v>98.14598685622278</v>
       </c>
       <c r="C40" t="n">
-        <v>85.56082777291334</v>
+        <v>85.56082777291331</v>
       </c>
       <c r="D40" t="n">
-        <v>66.92947969249786</v>
+        <v>66.92947969249784</v>
       </c>
       <c r="E40" t="n">
-        <v>64.74796932085468</v>
+        <v>64.74796932085465</v>
       </c>
       <c r="F40" t="n">
-        <v>63.73505469721675</v>
+        <v>63.73505469721673</v>
       </c>
       <c r="G40" t="n">
-        <v>85.10724635505746</v>
+        <v>85.10724635505743</v>
       </c>
       <c r="H40" t="n">
-        <v>69.89218459283687</v>
+        <v>69.89218459283684</v>
       </c>
       <c r="I40" t="n">
-        <v>37.74518293074398</v>
+        <v>37.74518293074396</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.75266672564612</v>
+        <v>41.75266672564609</v>
       </c>
       <c r="S40" t="n">
         <v>121.4572686919339</v>
@@ -3724,7 +3724,7 @@
         <v>204.8370050108765</v>
       </c>
       <c r="X40" t="n">
-        <v>144.0236620633227</v>
+        <v>144.0236620633226</v>
       </c>
       <c r="Y40" t="n">
         <v>136.8986600263803</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>301.0478483377661</v>
+        <v>301.047848337766</v>
       </c>
       <c r="C41" t="n">
-        <v>283.5868984452931</v>
+        <v>283.586898445293</v>
       </c>
       <c r="D41" t="n">
-        <v>272.9970482949685</v>
+        <v>272.9970482949684</v>
       </c>
       <c r="E41" t="n">
-        <v>300.2443767465473</v>
+        <v>300.2443767465472</v>
       </c>
       <c r="F41" t="n">
         <v>325.1900524159969</v>
       </c>
       <c r="G41" t="n">
-        <v>330.9465890377022</v>
+        <v>330.9465890377021</v>
       </c>
       <c r="H41" t="n">
-        <v>230.4430823425163</v>
+        <v>230.4430823425162</v>
       </c>
       <c r="I41" t="n">
-        <v>25.84873975806653</v>
+        <v>25.8487397580665</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.48791574074704</v>
+        <v>66.48791574074701</v>
       </c>
       <c r="T41" t="n">
         <v>129.7212520617694</v>
@@ -3806,7 +3806,7 @@
         <v>288.0451073527545</v>
       </c>
       <c r="Y41" t="n">
-        <v>304.5519453303391</v>
+        <v>304.551945330339</v>
       </c>
     </row>
     <row r="42">
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>11.45565786470088</v>
+        <v>11.4556578647009</v>
       </c>
       <c r="S42" t="n">
         <v>145.146457584522</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>98.14598685622281</v>
+        <v>98.14598685622276</v>
       </c>
       <c r="C43" t="n">
-        <v>85.56082777291334</v>
+        <v>85.5608277729133</v>
       </c>
       <c r="D43" t="n">
-        <v>66.92947969249786</v>
+        <v>66.92947969249782</v>
       </c>
       <c r="E43" t="n">
-        <v>64.74796932085468</v>
+        <v>64.74796932085464</v>
       </c>
       <c r="F43" t="n">
-        <v>63.73505469721675</v>
+        <v>63.73505469721671</v>
       </c>
       <c r="G43" t="n">
-        <v>85.10724635505746</v>
+        <v>85.10724635505741</v>
       </c>
       <c r="H43" t="n">
-        <v>69.89218459283687</v>
+        <v>69.89218459283683</v>
       </c>
       <c r="I43" t="n">
-        <v>37.74518293074398</v>
+        <v>37.74518293074394</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.75266672564612</v>
+        <v>41.75266672564608</v>
       </c>
       <c r="S43" t="n">
         <v>121.4572686919339</v>
       </c>
       <c r="T43" t="n">
-        <v>141.141981116087</v>
+        <v>141.1419811160869</v>
       </c>
       <c r="U43" t="n">
         <v>204.5677047756298</v>
@@ -3961,10 +3961,10 @@
         <v>204.8370050108765</v>
       </c>
       <c r="X43" t="n">
-        <v>144.0236620633227</v>
+        <v>144.0236620633226</v>
       </c>
       <c r="Y43" t="n">
-        <v>136.8986600263803</v>
+        <v>136.8986600263802</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>230.4430823425163</v>
       </c>
       <c r="I44" t="n">
-        <v>25.84873975806653</v>
+        <v>25.84873975806654</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.48791574074704</v>
+        <v>66.48791574074707</v>
       </c>
       <c r="T44" t="n">
         <v>129.7212520617694</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>11.45565786470088</v>
+        <v>11.4556578647009</v>
       </c>
       <c r="S45" t="n">
         <v>145.146457584522</v>
@@ -4150,10 +4150,10 @@
         <v>85.10724635505744</v>
       </c>
       <c r="H46" t="n">
-        <v>69.89218459283686</v>
+        <v>69.89218459283687</v>
       </c>
       <c r="I46" t="n">
-        <v>37.74518293074398</v>
+        <v>37.74518293074399</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4778,67 +4778,67 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="C8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F8" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="C8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="D8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="E8" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K8" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L8" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="M8" t="n">
+        <v>7.357368943631237</v>
+      </c>
+      <c r="N8" t="n">
         <v>13.8896123982571</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>20.69689768255142</v>
-      </c>
-      <c r="N8" t="n">
-        <v>27.50418296684575</v>
-      </c>
-      <c r="O8" t="n">
-        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
         <v>21.38658590694733</v>
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.44108515774386</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="C9" t="n">
-        <v>14.44108515774386</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="D9" t="n">
-        <v>7.495584408540386</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5500836593369149</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
@@ -4887,19 +4887,19 @@
         <v>7.357368943631237</v>
       </c>
       <c r="L9" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M9" t="n">
-        <v>7.357368943631237</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N9" t="n">
-        <v>7.357368943631237</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="O9" t="n">
-        <v>13.8896123982571</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P9" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q9" t="n">
         <v>27.50418296684575</v>
@@ -4911,22 +4911,22 @@
         <v>27.50418296684575</v>
       </c>
       <c r="T9" t="n">
-        <v>20.55868221764227</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="U9" t="n">
-        <v>14.44108515774386</v>
+        <v>22.14071855973305</v>
       </c>
       <c r="V9" t="n">
-        <v>14.44108515774386</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="W9" t="n">
-        <v>14.44108515774386</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="X9" t="n">
-        <v>14.44108515774386</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.44108515774386</v>
+        <v>1.304216312122629</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="C10" t="n">
-        <v>7.495584408540386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5500836593369149</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5500836593369149</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5500836593369149</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5500836593369149</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5500836593369149</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5500836593369149</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="J10" t="n">
-        <v>0.5500836593369149</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
@@ -4972,40 +4972,40 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N10" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O10" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.50418296684575</v>
+        <v>17.80975218218115</v>
       </c>
       <c r="R10" t="n">
-        <v>27.50418296684575</v>
+        <v>10.86425143297768</v>
       </c>
       <c r="S10" t="n">
-        <v>27.50418296684575</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="T10" t="n">
-        <v>20.55868221764227</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="U10" t="n">
-        <v>20.55868221764227</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="V10" t="n">
-        <v>20.55868221764227</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="W10" t="n">
-        <v>20.55868221764227</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="X10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.44108515774386</v>
+        <v>3.91875068377421</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5015,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>826.0587803292898</v>
+        <v>1020.165139960781</v>
       </c>
       <c r="C11" t="n">
-        <v>826.0587803292898</v>
+        <v>697.0175327062955</v>
       </c>
       <c r="D11" t="n">
-        <v>826.0587803292898</v>
+        <v>384.5667437854711</v>
       </c>
       <c r="E11" t="n">
-        <v>486.0854374169718</v>
+        <v>384.5667437854711</v>
       </c>
       <c r="F11" t="n">
-        <v>486.0854374169718</v>
+        <v>384.5667437854711</v>
       </c>
       <c r="G11" t="n">
-        <v>115.0997588570227</v>
+        <v>384.5667437854711</v>
       </c>
       <c r="H11" t="n">
-        <v>115.0997588570227</v>
+        <v>115.0997588570228</v>
       </c>
       <c r="I11" t="n">
         <v>52.2937260340792</v>
       </c>
       <c r="J11" t="n">
-        <v>97.41810055274046</v>
+        <v>264.8237495730935</v>
       </c>
       <c r="K11" t="n">
-        <v>323.015209207669</v>
+        <v>704.0959663806153</v>
       </c>
       <c r="L11" t="n">
-        <v>920.247864806086</v>
+        <v>1301.328621979032</v>
       </c>
       <c r="M11" t="n">
-        <v>1156.372415887423</v>
+        <v>1537.45317306037</v>
       </c>
       <c r="N11" t="n">
-        <v>1803.507275559153</v>
+        <v>1782.012274617654</v>
       </c>
       <c r="O11" t="n">
-        <v>2398.094418482709</v>
+        <v>1999.607238091092</v>
       </c>
       <c r="P11" t="n">
-        <v>2549.305684710932</v>
+        <v>2321.432428505724</v>
       </c>
       <c r="Q11" t="n">
-        <v>2614.68630170396</v>
+        <v>2597.004886252057</v>
       </c>
       <c r="R11" t="n">
         <v>2614.68630170396</v>
@@ -5081,10 +5081,10 @@
         <v>1543.047292419255</v>
       </c>
       <c r="X11" t="n">
-        <v>1511.168132997371</v>
+        <v>1215.396443844101</v>
       </c>
       <c r="Y11" t="n">
-        <v>1166.843710707485</v>
+        <v>1020.165139960781</v>
       </c>
     </row>
     <row r="12">
@@ -5124,16 +5124,16 @@
         <v>538.9294528358594</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.991260651315</v>
+        <v>708.8593188008899</v>
       </c>
       <c r="M12" t="n">
-        <v>1293.648267330799</v>
+        <v>1355.99417847262</v>
       </c>
       <c r="N12" t="n">
-        <v>1940.783127002529</v>
+        <v>1593.820563376021</v>
       </c>
       <c r="O12" t="n">
-        <v>2227.299926239096</v>
+        <v>1912.021785285558</v>
       </c>
       <c r="P12" t="n">
         <v>2364.748351180358</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.2310731539472</v>
+        <v>399.7359259841671</v>
       </c>
       <c r="C13" t="n">
-        <v>471.2310731539472</v>
+        <v>399.7359259841671</v>
       </c>
       <c r="D13" t="n">
-        <v>366.9293434275378</v>
+        <v>295.4341962577575</v>
       </c>
       <c r="E13" t="n">
-        <v>264.8311595310709</v>
+        <v>249.779478315995</v>
       </c>
       <c r="F13" t="n">
-        <v>163.7561217190868</v>
+        <v>249.779478315995</v>
       </c>
       <c r="G13" t="n">
-        <v>52.2937260340792</v>
+        <v>127.1163681223536</v>
       </c>
       <c r="H13" t="n">
-        <v>52.2937260340792</v>
+        <v>127.1163681223536</v>
       </c>
       <c r="I13" t="n">
         <v>52.2937260340792</v>
       </c>
       <c r="J13" t="n">
-        <v>88.6047239620824</v>
+        <v>88.60472396208252</v>
       </c>
       <c r="K13" t="n">
         <v>249.2251377651719</v>
       </c>
       <c r="L13" t="n">
-        <v>497.7329679560725</v>
+        <v>497.7329679560723</v>
       </c>
       <c r="M13" t="n">
-        <v>767.6978264926544</v>
+        <v>767.6978264926541</v>
       </c>
       <c r="N13" t="n">
         <v>1037.745838081786</v>
       </c>
       <c r="O13" t="n">
-        <v>1274.590416277933</v>
+        <v>1274.590416277932</v>
       </c>
       <c r="P13" t="n">
         <v>1460.211940980862</v>
       </c>
       <c r="Q13" t="n">
-        <v>1519.10613268542</v>
+        <v>1519.106132685419</v>
       </c>
       <c r="R13" t="n">
-        <v>1440.235527167952</v>
+        <v>1440.235527167951</v>
       </c>
       <c r="S13" t="n">
-        <v>1280.855222694637</v>
+        <v>1280.855222694636</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.855222694637</v>
+        <v>1101.591370318137</v>
       </c>
       <c r="U13" t="n">
-        <v>1280.855222694637</v>
+        <v>1101.591370318137</v>
       </c>
       <c r="V13" t="n">
-        <v>1071.985644174677</v>
+        <v>892.7217917981758</v>
       </c>
       <c r="W13" t="n">
-        <v>828.3833838236421</v>
+        <v>892.7217917981758</v>
       </c>
       <c r="X13" t="n">
-        <v>646.2087426115511</v>
+        <v>710.5471505860846</v>
       </c>
       <c r="Y13" t="n">
-        <v>471.2310731539472</v>
+        <v>535.5694811284807</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1447.619336628633</v>
+        <v>1283.371961096351</v>
       </c>
       <c r="C14" t="n">
-        <v>1126.268669327981</v>
+        <v>962.0212937956989</v>
       </c>
       <c r="D14" t="n">
-        <v>1126.268669327981</v>
+        <v>651.3674448287085</v>
       </c>
       <c r="E14" t="n">
-        <v>1126.268669327981</v>
+        <v>651.3674448287085</v>
       </c>
       <c r="F14" t="n">
-        <v>762.8946141781339</v>
+        <v>434.2154763344099</v>
       </c>
       <c r="G14" t="n">
-        <v>393.7058755720187</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="H14" t="n">
-        <v>126.0358305974042</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="I14" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="J14" t="n">
         <v>277.5567612673089</v>
@@ -5285,43 +5285,43 @@
         <v>1314.061633673248</v>
       </c>
       <c r="M14" t="n">
-        <v>1995.204582912489</v>
+        <v>1550.186184754585</v>
       </c>
       <c r="N14" t="n">
-        <v>2239.763684469774</v>
+        <v>1911.385298426851</v>
       </c>
       <c r="O14" t="n">
-        <v>2834.350827393329</v>
+        <v>2505.972441350407</v>
       </c>
       <c r="P14" t="n">
-        <v>2985.562093621552</v>
+        <v>2975.764428668398</v>
       </c>
       <c r="Q14" t="n">
-        <v>3233.655470962827</v>
+        <v>3251.336886414731</v>
       </c>
       <c r="R14" t="n">
-        <v>3251.33688641473</v>
+        <v>3251.336886414731</v>
       </c>
       <c r="S14" t="n">
-        <v>3149.278120835842</v>
+        <v>3251.336886414731</v>
       </c>
       <c r="T14" t="n">
-        <v>2983.347298367033</v>
+        <v>3085.406063945921</v>
       </c>
       <c r="U14" t="n">
-        <v>2777.290420233359</v>
+        <v>2879.349185812248</v>
       </c>
       <c r="V14" t="n">
-        <v>2760.14552364072</v>
+        <v>2595.898148108438</v>
       </c>
       <c r="W14" t="n">
-        <v>2454.988718010366</v>
+        <v>2290.741342478084</v>
       </c>
       <c r="X14" t="n">
-        <v>2129.134809389046</v>
+        <v>1964.887433856764</v>
       </c>
       <c r="Y14" t="n">
-        <v>1786.607327052995</v>
+        <v>1622.359951520712</v>
       </c>
     </row>
     <row r="15">
@@ -5349,25 +5349,25 @@
         <v>205.0729619948426</v>
       </c>
       <c r="H15" t="n">
-        <v>105.6410363220511</v>
+        <v>105.6410363220512</v>
       </c>
       <c r="I15" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="J15" t="n">
-        <v>73.08465910170358</v>
+        <v>197.9147840887083</v>
       </c>
       <c r="K15" t="n">
-        <v>253.0249464031631</v>
+        <v>551.6624645300748</v>
       </c>
       <c r="L15" t="n">
-        <v>422.9548123681938</v>
+        <v>1088.72427234553</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.659832160178</v>
+        <v>1306.381279025015</v>
       </c>
       <c r="N15" t="n">
-        <v>1339.48621706358</v>
+        <v>1544.207663928416</v>
       </c>
       <c r="O15" t="n">
         <v>1924.754796979774</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2083.389660691016</v>
+        <v>688.5463980909375</v>
       </c>
       <c r="C16" t="n">
-        <v>2083.389660691016</v>
+        <v>567.2220648027907</v>
       </c>
       <c r="D16" t="n">
-        <v>1980.88487091844</v>
+        <v>464.717275030215</v>
       </c>
       <c r="E16" t="n">
-        <v>1880.583626975807</v>
+        <v>364.4160310875819</v>
       </c>
       <c r="F16" t="n">
-        <v>1875.932453958408</v>
+        <v>364.4160310875819</v>
       </c>
       <c r="G16" t="n">
-        <v>1875.932453958408</v>
+        <v>243.5498608477743</v>
       </c>
       <c r="H16" t="n">
-        <v>1770.435032973369</v>
+        <v>138.052439862735</v>
       </c>
       <c r="I16" t="n">
-        <v>1770.435032973369</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="J16" t="n">
-        <v>1808.507211750124</v>
+        <v>103.0989165050505</v>
       </c>
       <c r="K16" t="n">
-        <v>1970.888806401967</v>
+        <v>265.4805111568925</v>
       </c>
       <c r="L16" t="n">
-        <v>2221.15781744162</v>
+        <v>515.7495221965456</v>
       </c>
       <c r="M16" t="n">
-        <v>2492.883856826954</v>
+        <v>787.4755615818801</v>
       </c>
       <c r="N16" t="n">
-        <v>2764.693049264839</v>
+        <v>1059.284754019764</v>
       </c>
       <c r="O16" t="n">
-        <v>3003.298808309738</v>
+        <v>1297.890513064664</v>
       </c>
       <c r="P16" t="n">
-        <v>3190.68151386142</v>
+        <v>1485.273218616346</v>
       </c>
       <c r="Q16" t="n">
-        <v>3251.33688641473</v>
+        <v>1545.928591169656</v>
       </c>
       <c r="R16" t="n">
-        <v>3174.263220851095</v>
+        <v>1468.854925606021</v>
       </c>
       <c r="S16" t="n">
-        <v>3016.679856331615</v>
+        <v>1311.271561086541</v>
       </c>
       <c r="T16" t="n">
-        <v>2839.212943908949</v>
+        <v>1311.271561086541</v>
       </c>
       <c r="U16" t="n">
-        <v>2597.679643951392</v>
+        <v>1202.836381351314</v>
       </c>
       <c r="V16" t="n">
-        <v>2390.607005385265</v>
+        <v>995.7637427851871</v>
       </c>
       <c r="W16" t="n">
-        <v>2390.607005385265</v>
+        <v>995.7637427851871</v>
       </c>
       <c r="X16" t="n">
-        <v>2390.607005385265</v>
+        <v>995.7637427851871</v>
       </c>
       <c r="Y16" t="n">
-        <v>2217.426275881495</v>
+        <v>822.5830132814172</v>
       </c>
     </row>
     <row r="17">
@@ -5498,52 +5498,52 @@
         <v>1159.399607940918</v>
       </c>
       <c r="E17" t="n">
-        <v>882.2322978515438</v>
+        <v>882.2322978515434</v>
       </c>
       <c r="F17" t="n">
-        <v>579.8673355708061</v>
+        <v>579.8673355708056</v>
       </c>
       <c r="G17" t="n">
-        <v>271.6876898337993</v>
+        <v>271.6876898337994</v>
       </c>
       <c r="H17" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="I17" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="J17" t="n">
-        <v>110.1511122469559</v>
+        <v>277.5567612673089</v>
       </c>
       <c r="K17" t="n">
-        <v>549.4233290544777</v>
+        <v>716.8289780748307</v>
       </c>
       <c r="L17" t="n">
-        <v>1146.655984652895</v>
+        <v>900.5770312683018</v>
       </c>
       <c r="M17" t="n">
-        <v>1827.798933892136</v>
+        <v>1581.719980507543</v>
       </c>
       <c r="N17" t="n">
-        <v>2121.577139180155</v>
+        <v>2259.252537232692</v>
       </c>
       <c r="O17" t="n">
-        <v>2716.164282103712</v>
+        <v>2488.291025898504</v>
       </c>
       <c r="P17" t="n">
-        <v>3185.956269421702</v>
+        <v>2958.083013216495</v>
       </c>
       <c r="Q17" t="n">
-        <v>3251.33688641473</v>
+        <v>3233.655470962828</v>
       </c>
       <c r="R17" t="n">
-        <v>3251.33688641473</v>
+        <v>3251.336886414731</v>
       </c>
       <c r="S17" t="n">
-        <v>3210.287213704952</v>
+        <v>3210.287213704953</v>
       </c>
       <c r="T17" t="n">
-        <v>3105.365484105252</v>
+        <v>3105.365484105253</v>
       </c>
       <c r="U17" t="n">
         <v>2960.317698840689</v>
@@ -5555,7 +5555,7 @@
         <v>2493.728041244744</v>
       </c>
       <c r="X17" t="n">
-        <v>2228.883225492534</v>
+        <v>2228.883225492535</v>
       </c>
       <c r="Y17" t="n">
         <v>1947.364836025592</v>
@@ -5586,28 +5586,28 @@
         <v>205.0729619948426</v>
       </c>
       <c r="H18" t="n">
-        <v>105.6410363220511</v>
+        <v>105.6410363220512</v>
       </c>
       <c r="I18" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="J18" t="n">
-        <v>73.08465910170358</v>
+        <v>197.9147840887083</v>
       </c>
       <c r="K18" t="n">
-        <v>426.83233954307</v>
+        <v>551.6624645300748</v>
       </c>
       <c r="L18" t="n">
-        <v>596.7622055081006</v>
+        <v>1088.72427234553</v>
       </c>
       <c r="M18" t="n">
-        <v>1275.467225300085</v>
+        <v>1306.381279025015</v>
       </c>
       <c r="N18" t="n">
-        <v>1987.842560803605</v>
+        <v>1544.207663928416</v>
       </c>
       <c r="O18" t="n">
-        <v>2240.032937933312</v>
+        <v>1924.754796979774</v>
       </c>
       <c r="P18" t="n">
         <v>2377.481362874573</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>360.7608458653194</v>
+        <v>360.7608458653198</v>
       </c>
       <c r="C19" t="n">
-        <v>300.4456054462823</v>
+        <v>300.4456054462827</v>
       </c>
       <c r="D19" t="n">
-        <v>258.9499085428164</v>
+        <v>258.9499085428167</v>
       </c>
       <c r="E19" t="n">
-        <v>219.6577574692931</v>
+        <v>219.6577574692934</v>
       </c>
       <c r="F19" t="n">
-        <v>181.3887524802526</v>
+        <v>181.3887524802528</v>
       </c>
       <c r="G19" t="n">
-        <v>121.5316751095548</v>
+        <v>121.531675109555</v>
       </c>
       <c r="H19" t="n">
-        <v>77.04334699362528</v>
+        <v>77.04334699362535</v>
       </c>
       <c r="I19" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="J19" t="n">
-        <v>65.02673772829461</v>
+        <v>72.71142807551509</v>
       </c>
       <c r="K19" t="n">
-        <v>188.4286488954273</v>
+        <v>188.4286488954283</v>
       </c>
       <c r="L19" t="n">
-        <v>498.4926718560949</v>
+        <v>392.0332861031525</v>
       </c>
       <c r="M19" t="n">
-        <v>723.5543374095005</v>
+        <v>617.0949516565581</v>
       </c>
       <c r="N19" t="n">
-        <v>948.699156015456</v>
+        <v>948.6991560154569</v>
       </c>
       <c r="O19" t="n">
-        <v>1140.640541228426</v>
+        <v>1140.640541228427</v>
       </c>
       <c r="P19" t="n">
-        <v>1281.358872948179</v>
+        <v>1387.818258701123</v>
       </c>
       <c r="Q19" t="n">
-        <v>1401.809257422504</v>
+        <v>1401.809257422505</v>
       </c>
       <c r="R19" t="n">
-        <v>1385.744684727979</v>
+        <v>1385.74468472798</v>
       </c>
       <c r="S19" t="n">
-        <v>1289.170413077608</v>
+        <v>1289.170413077609</v>
       </c>
       <c r="T19" t="n">
-        <v>1172.712593524052</v>
+        <v>1172.712593524053</v>
       </c>
       <c r="U19" t="n">
-        <v>992.1883864356048</v>
+        <v>992.1883864356057</v>
       </c>
       <c r="V19" t="n">
-        <v>846.1248407385877</v>
+        <v>846.1248407385885</v>
       </c>
       <c r="W19" t="n">
-        <v>665.328613210497</v>
+        <v>665.3286132104977</v>
       </c>
       <c r="X19" t="n">
-        <v>545.9600048213495</v>
+        <v>545.9600048213501</v>
       </c>
       <c r="Y19" t="n">
-        <v>433.7883681866892</v>
+        <v>433.7883681866898</v>
       </c>
     </row>
     <row r="20">
@@ -5735,52 +5735,52 @@
         <v>1159.399607940917</v>
       </c>
       <c r="E20" t="n">
-        <v>882.2322978515429</v>
+        <v>882.2322978515431</v>
       </c>
       <c r="F20" t="n">
         <v>579.8673355708052</v>
       </c>
       <c r="G20" t="n">
-        <v>271.6876898337993</v>
+        <v>271.6876898337994</v>
       </c>
       <c r="H20" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829463</v>
       </c>
       <c r="I20" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829463</v>
       </c>
       <c r="J20" t="n">
-        <v>110.1511122469559</v>
+        <v>277.5567612673089</v>
       </c>
       <c r="K20" t="n">
-        <v>549.4233290544777</v>
+        <v>716.8289780748307</v>
       </c>
       <c r="L20" t="n">
-        <v>1146.655984652895</v>
+        <v>985.6832476303264</v>
       </c>
       <c r="M20" t="n">
-        <v>1827.798933892136</v>
+        <v>1666.826196869568</v>
       </c>
       <c r="N20" t="n">
-        <v>2505.331490617285</v>
+        <v>1911.385298426852</v>
       </c>
       <c r="O20" t="n">
-        <v>2722.926454090722</v>
+        <v>2505.972441350408</v>
       </c>
       <c r="P20" t="n">
-        <v>2975.764428668397</v>
+        <v>2975.764428668399</v>
       </c>
       <c r="Q20" t="n">
-        <v>3251.33688641473</v>
+        <v>3251.336886414732</v>
       </c>
       <c r="R20" t="n">
-        <v>3251.33688641473</v>
+        <v>3251.336886414732</v>
       </c>
       <c r="S20" t="n">
-        <v>3210.287213704952</v>
+        <v>3210.287213704953</v>
       </c>
       <c r="T20" t="n">
-        <v>3105.365484105252</v>
+        <v>3105.365484105253</v>
       </c>
       <c r="U20" t="n">
         <v>2960.317698840689</v>
@@ -5823,31 +5823,31 @@
         <v>205.0729619948426</v>
       </c>
       <c r="H21" t="n">
-        <v>105.6410363220511</v>
+        <v>105.6410363220512</v>
       </c>
       <c r="I21" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829463</v>
       </c>
       <c r="J21" t="n">
-        <v>130.0455350538244</v>
+        <v>197.9147840887084</v>
       </c>
       <c r="K21" t="n">
-        <v>483.7932154951908</v>
+        <v>551.6624645300748</v>
       </c>
       <c r="L21" t="n">
-        <v>1020.855023310646</v>
+        <v>1088.72427234553</v>
       </c>
       <c r="M21" t="n">
-        <v>1699.560043102631</v>
+        <v>1491.583528244141</v>
       </c>
       <c r="N21" t="n">
-        <v>1937.386428006032</v>
+        <v>1729.409913147542</v>
       </c>
       <c r="O21" t="n">
-        <v>2132.731311838264</v>
+        <v>1924.754796979774</v>
       </c>
       <c r="P21" t="n">
-        <v>2585.457877733064</v>
+        <v>2377.481362874573</v>
       </c>
       <c r="Q21" t="n">
         <v>2627.419313398176</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>360.7608458653194</v>
+        <v>360.7608458653198</v>
       </c>
       <c r="C22" t="n">
-        <v>300.4456054462823</v>
+        <v>300.4456054462827</v>
       </c>
       <c r="D22" t="n">
-        <v>258.9499085428164</v>
+        <v>258.9499085428167</v>
       </c>
       <c r="E22" t="n">
-        <v>219.6577574692931</v>
+        <v>219.6577574692934</v>
       </c>
       <c r="F22" t="n">
-        <v>181.3887524802526</v>
+        <v>181.3887524802528</v>
       </c>
       <c r="G22" t="n">
-        <v>121.5316751095548</v>
+        <v>121.531675109555</v>
       </c>
       <c r="H22" t="n">
-        <v>77.04334699362528</v>
+        <v>77.04334699362536</v>
       </c>
       <c r="I22" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829463</v>
       </c>
       <c r="J22" t="n">
-        <v>162.893928426065</v>
+        <v>65.02673772829463</v>
       </c>
       <c r="K22" t="n">
-        <v>294.8880346483706</v>
+        <v>180.7439585482078</v>
       </c>
       <c r="L22" t="n">
-        <v>498.4926718560949</v>
+        <v>384.3485957559321</v>
       </c>
       <c r="M22" t="n">
-        <v>723.5543374095005</v>
+        <v>609.4102613093377</v>
       </c>
       <c r="N22" t="n">
-        <v>948.699156015456</v>
+        <v>941.0144656682364</v>
       </c>
       <c r="O22" t="n">
-        <v>1140.640541228426</v>
+        <v>1239.41523663415</v>
       </c>
       <c r="P22" t="n">
-        <v>1387.818258701122</v>
+        <v>1380.133568353903</v>
       </c>
       <c r="Q22" t="n">
-        <v>1401.809257422504</v>
+        <v>1401.809257422505</v>
       </c>
       <c r="R22" t="n">
-        <v>1385.744684727979</v>
+        <v>1385.74468472798</v>
       </c>
       <c r="S22" t="n">
-        <v>1289.170413077608</v>
+        <v>1289.170413077609</v>
       </c>
       <c r="T22" t="n">
-        <v>1172.712593524052</v>
+        <v>1172.712593524053</v>
       </c>
       <c r="U22" t="n">
-        <v>992.1883864356048</v>
+        <v>992.1883864356057</v>
       </c>
       <c r="V22" t="n">
-        <v>846.1248407385877</v>
+        <v>846.1248407385885</v>
       </c>
       <c r="W22" t="n">
-        <v>665.328613210497</v>
+        <v>665.3286132104977</v>
       </c>
       <c r="X22" t="n">
-        <v>545.9600048213495</v>
+        <v>545.9600048213501</v>
       </c>
       <c r="Y22" t="n">
-        <v>433.7883681866892</v>
+        <v>433.7883681866898</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5963,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1669.385938470338</v>
+        <v>1669.38593847034</v>
       </c>
       <c r="C23" t="n">
-        <v>1409.044364038796</v>
+        <v>1409.044364038798</v>
       </c>
       <c r="D23" t="n">
-        <v>1159.399607940916</v>
+        <v>1159.399607940917</v>
       </c>
       <c r="E23" t="n">
-        <v>882.2322978515413</v>
+        <v>882.2322978515425</v>
       </c>
       <c r="F23" t="n">
-        <v>579.8673355708038</v>
+        <v>579.8673355708047</v>
       </c>
       <c r="G23" t="n">
-        <v>271.6876898337993</v>
+        <v>271.6876898337994</v>
       </c>
       <c r="H23" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="I23" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="J23" t="n">
         <v>277.5567612673089</v>
@@ -5996,43 +5996,43 @@
         <v>1314.061633673248</v>
       </c>
       <c r="M23" t="n">
-        <v>1649.144781417663</v>
+        <v>1550.186184754585</v>
       </c>
       <c r="N23" t="n">
-        <v>1893.703882974947</v>
+        <v>1893.703882974948</v>
       </c>
       <c r="O23" t="n">
-        <v>2488.291025898503</v>
+        <v>2488.291025898504</v>
       </c>
       <c r="P23" t="n">
-        <v>2958.083013216494</v>
+        <v>2958.083013216495</v>
       </c>
       <c r="Q23" t="n">
-        <v>3233.655470962827</v>
+        <v>3233.655470962828</v>
       </c>
       <c r="R23" t="n">
-        <v>3251.33688641473</v>
+        <v>3251.336886414731</v>
       </c>
       <c r="S23" t="n">
-        <v>3210.287213704952</v>
+        <v>3210.287213704953</v>
       </c>
       <c r="T23" t="n">
-        <v>3105.365484105252</v>
+        <v>3105.365484105253</v>
       </c>
       <c r="U23" t="n">
-        <v>2960.317698840688</v>
+        <v>2960.317698840689</v>
       </c>
       <c r="V23" t="n">
-        <v>2737.875754005986</v>
+        <v>2737.875754005989</v>
       </c>
       <c r="W23" t="n">
-        <v>2493.728041244742</v>
+        <v>2493.728041244744</v>
       </c>
       <c r="X23" t="n">
-        <v>2228.883225492532</v>
+        <v>2228.883225492534</v>
       </c>
       <c r="Y23" t="n">
-        <v>1947.36483602559</v>
+        <v>1947.364836025592</v>
       </c>
     </row>
     <row r="24">
@@ -6060,31 +6060,31 @@
         <v>205.0729619948426</v>
       </c>
       <c r="H24" t="n">
-        <v>105.6410363220511</v>
+        <v>105.6410363220512</v>
       </c>
       <c r="I24" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="J24" t="n">
-        <v>197.9147840887083</v>
+        <v>73.08465910170358</v>
       </c>
       <c r="K24" t="n">
-        <v>551.6624645300747</v>
+        <v>426.83233954307</v>
       </c>
       <c r="L24" t="n">
-        <v>1088.72427234553</v>
+        <v>596.7622055081006</v>
       </c>
       <c r="M24" t="n">
-        <v>1767.429292137514</v>
+        <v>814.4192121875853</v>
       </c>
       <c r="N24" t="n">
-        <v>2005.255677040916</v>
+        <v>1526.794547691105</v>
       </c>
       <c r="O24" t="n">
-        <v>2448.009452791803</v>
+        <v>1924.754796979774</v>
       </c>
       <c r="P24" t="n">
-        <v>2585.457877733064</v>
+        <v>2377.481362874573</v>
       </c>
       <c r="Q24" t="n">
         <v>2627.419313398176</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>360.7608458653194</v>
+        <v>360.7608458653198</v>
       </c>
       <c r="C25" t="n">
-        <v>300.4456054462823</v>
+        <v>300.4456054462827</v>
       </c>
       <c r="D25" t="n">
-        <v>258.9499085428164</v>
+        <v>258.9499085428167</v>
       </c>
       <c r="E25" t="n">
-        <v>219.6577574692931</v>
+        <v>219.6577574692934</v>
       </c>
       <c r="F25" t="n">
-        <v>181.3887524802526</v>
+        <v>181.3887524802528</v>
       </c>
       <c r="G25" t="n">
-        <v>121.5316751095548</v>
+        <v>121.531675109555</v>
       </c>
       <c r="H25" t="n">
-        <v>77.04334699362528</v>
+        <v>77.04334699362535</v>
       </c>
       <c r="I25" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="J25" t="n">
-        <v>65.02673772829461</v>
+        <v>65.02673772829462</v>
       </c>
       <c r="K25" t="n">
         <v>180.7439585482078</v>
       </c>
       <c r="L25" t="n">
-        <v>392.0332861031514</v>
+        <v>392.0332861031525</v>
       </c>
       <c r="M25" t="n">
-        <v>617.094951656557</v>
+        <v>617.0949516565581</v>
       </c>
       <c r="N25" t="n">
-        <v>948.6991560154559</v>
+        <v>842.2397702625136</v>
       </c>
       <c r="O25" t="n">
-        <v>1247.09992698137</v>
+        <v>1034.181155475484</v>
       </c>
       <c r="P25" t="n">
-        <v>1387.818258701122</v>
+        <v>1281.35887294818</v>
       </c>
       <c r="Q25" t="n">
-        <v>1401.809257422504</v>
+        <v>1401.809257422505</v>
       </c>
       <c r="R25" t="n">
-        <v>1385.744684727979</v>
+        <v>1385.74468472798</v>
       </c>
       <c r="S25" t="n">
-        <v>1289.170413077608</v>
+        <v>1289.170413077609</v>
       </c>
       <c r="T25" t="n">
-        <v>1172.712593524052</v>
+        <v>1172.712593524053</v>
       </c>
       <c r="U25" t="n">
-        <v>992.1883864356048</v>
+        <v>992.1883864356057</v>
       </c>
       <c r="V25" t="n">
-        <v>846.1248407385877</v>
+        <v>846.1248407385885</v>
       </c>
       <c r="W25" t="n">
-        <v>665.328613210497</v>
+        <v>665.3286132104977</v>
       </c>
       <c r="X25" t="n">
-        <v>545.9600048213495</v>
+        <v>545.9600048213501</v>
       </c>
       <c r="Y25" t="n">
-        <v>433.7883681866892</v>
+        <v>433.7883681866898</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1860.14761304028</v>
+        <v>1860.147613040281</v>
       </c>
       <c r="C26" t="n">
-        <v>1573.696200469277</v>
+        <v>1573.696200469278</v>
       </c>
       <c r="D26" t="n">
         <v>1297.941606231936</v>
       </c>
       <c r="E26" t="n">
-        <v>994.6644580030999</v>
+        <v>994.6644580031002</v>
       </c>
       <c r="F26" t="n">
-        <v>666.189657582901</v>
+        <v>666.1896575829013</v>
       </c>
       <c r="G26" t="n">
-        <v>331.9001737064342</v>
+        <v>331.9001737064345</v>
       </c>
       <c r="H26" t="n">
-        <v>99.12938346146834</v>
+        <v>99.12938346146835</v>
       </c>
       <c r="I26" t="n">
         <v>73.01954532200722</v>
@@ -6233,19 +6233,19 @@
         <v>1322.05444126696</v>
       </c>
       <c r="M26" t="n">
-        <v>2003.197390506202</v>
+        <v>1615.811705935429</v>
       </c>
       <c r="N26" t="n">
-        <v>2680.72994723135</v>
+        <v>2293.344262660577</v>
       </c>
       <c r="O26" t="n">
-        <v>2905.612821036037</v>
+        <v>2887.931405584134</v>
       </c>
       <c r="P26" t="n">
-        <v>3375.404808354028</v>
+        <v>3357.723392902124</v>
       </c>
       <c r="Q26" t="n">
-        <v>3650.977266100361</v>
+        <v>3633.295850648457</v>
       </c>
       <c r="R26" t="n">
         <v>3650.977266100361</v>
@@ -6254,22 +6254,22 @@
         <v>3583.817755251122</v>
       </c>
       <c r="T26" t="n">
-        <v>3452.78618751196</v>
+        <v>3452.786187511961</v>
       </c>
       <c r="U26" t="n">
-        <v>3281.628564107935</v>
+        <v>3281.628564107936</v>
       </c>
       <c r="V26" t="n">
-        <v>3033.076781133773</v>
+        <v>3033.076781133774</v>
       </c>
       <c r="W26" t="n">
         <v>2762.819230233068</v>
       </c>
       <c r="X26" t="n">
-        <v>2471.864576341396</v>
+        <v>2471.864576341397</v>
       </c>
       <c r="Y26" t="n">
-        <v>2164.236348734993</v>
+        <v>2164.236348734994</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>73.01954532200722</v>
       </c>
       <c r="J27" t="n">
-        <v>124.5374051599187</v>
+        <v>205.9075916824209</v>
       </c>
       <c r="K27" t="n">
-        <v>478.2850856012851</v>
+        <v>354.9338252589507</v>
       </c>
       <c r="L27" t="n">
-        <v>1015.34689341674</v>
+        <v>891.995633074406</v>
       </c>
       <c r="M27" t="n">
-        <v>1233.003900096225</v>
+        <v>1109.652639753891</v>
       </c>
       <c r="N27" t="n">
-        <v>1945.379235599744</v>
+        <v>1347.479024657292</v>
       </c>
       <c r="O27" t="n">
-        <v>2140.724119431977</v>
+        <v>1932.747604573486</v>
       </c>
       <c r="P27" t="n">
-        <v>2593.450685326776</v>
+        <v>2385.474170468286</v>
       </c>
       <c r="Q27" t="n">
         <v>2635.412120991888</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.5225204352607</v>
+        <v>551.5225204352605</v>
       </c>
       <c r="C28" t="n">
-        <v>465.0974418767625</v>
+        <v>465.0974418767622</v>
       </c>
       <c r="D28" t="n">
-        <v>397.4919068338354</v>
+        <v>397.4919068338351</v>
       </c>
       <c r="E28" t="n">
-        <v>332.0899176208509</v>
+        <v>332.0899176208505</v>
       </c>
       <c r="F28" t="n">
-        <v>267.7110744923492</v>
+        <v>267.7110744923488</v>
       </c>
       <c r="G28" t="n">
-        <v>181.7441589821902</v>
+        <v>181.7441589821898</v>
       </c>
       <c r="H28" t="n">
         <v>111.1459927267991</v>
@@ -6385,25 +6385,25 @@
         <v>145.2964836592917</v>
       </c>
       <c r="K28" t="n">
-        <v>341.8828378716621</v>
+        <v>341.8828378716623</v>
       </c>
       <c r="L28" t="n">
-        <v>626.3566084718437</v>
+        <v>626.356608471844</v>
       </c>
       <c r="M28" t="n">
-        <v>932.2874074177064</v>
+        <v>932.2874074177068</v>
       </c>
       <c r="N28" t="n">
-        <v>1238.301359416119</v>
+        <v>1238.30135941612</v>
       </c>
       <c r="O28" t="n">
         <v>1511.111878021547</v>
       </c>
       <c r="P28" t="n">
-        <v>1732.699343133757</v>
+        <v>1732.699343133758</v>
       </c>
       <c r="Q28" t="n">
-        <v>1827.559475247596</v>
+        <v>1827.559475247597</v>
       </c>
       <c r="R28" t="n">
         <v>1785.385064413611</v>
@@ -6421,13 +6421,13 @@
         <v>1141.325867866374</v>
       </c>
       <c r="W28" t="n">
-        <v>934.4198021988223</v>
+        <v>934.4198021988219</v>
       </c>
       <c r="X28" t="n">
-        <v>788.9413556702135</v>
+        <v>788.9413556702131</v>
       </c>
       <c r="Y28" t="n">
-        <v>650.6598808960919</v>
+        <v>650.6598808960916</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1873.276276376455</v>
+        <v>1873.276276376454</v>
       </c>
       <c r="C29" t="n">
         <v>1585.027923851618</v>
@@ -6446,13 +6446,13 @@
         <v>1307.476389660442</v>
       </c>
       <c r="E29" t="n">
-        <v>1002.402301477773</v>
+        <v>1002.402301477772</v>
       </c>
       <c r="F29" t="n">
-        <v>672.1305611037401</v>
+        <v>672.1305611037396</v>
       </c>
       <c r="G29" t="n">
-        <v>336.0441372734394</v>
+        <v>336.044137273439</v>
       </c>
       <c r="H29" t="n">
         <v>101.4764070746391</v>
@@ -6461,28 +6461,28 @@
         <v>73.56962898134412</v>
       </c>
       <c r="J29" t="n">
-        <v>118.6940035000054</v>
+        <v>286.0996525203584</v>
       </c>
       <c r="K29" t="n">
-        <v>557.9662203075274</v>
+        <v>725.3718693278802</v>
       </c>
       <c r="L29" t="n">
-        <v>1155.198875905945</v>
+        <v>1322.604524926297</v>
       </c>
       <c r="M29" t="n">
-        <v>1836.341825145186</v>
+        <v>2003.747474165539</v>
       </c>
       <c r="N29" t="n">
-        <v>2513.874381870335</v>
+        <v>2681.280030890687</v>
       </c>
       <c r="O29" t="n">
-        <v>3108.461524793891</v>
+        <v>3234.016309640747</v>
       </c>
       <c r="P29" t="n">
-        <v>3402.908991320873</v>
+        <v>3385.22757586897</v>
       </c>
       <c r="Q29" t="n">
-        <v>3678.481449067206</v>
+        <v>3660.800033615303</v>
       </c>
       <c r="R29" t="n">
         <v>3678.481449067206</v>
@@ -6494,19 +6494,19 @@
         <v>3476.696490571138</v>
       </c>
       <c r="U29" t="n">
-        <v>3303.74192721328</v>
+        <v>3303.741927213279</v>
       </c>
       <c r="V29" t="n">
-        <v>3053.393204285284</v>
+        <v>3053.393204285283</v>
       </c>
       <c r="W29" t="n">
-        <v>2781.338713430745</v>
+        <v>2781.338713430744</v>
       </c>
       <c r="X29" t="n">
-        <v>2488.58711958524</v>
+        <v>2488.587119585239</v>
       </c>
       <c r="Y29" t="n">
-        <v>2179.161952025002</v>
+        <v>2179.161952025001</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.56962898134412</v>
       </c>
       <c r="J30" t="n">
-        <v>125.0874888192556</v>
+        <v>206.4576753417578</v>
       </c>
       <c r="K30" t="n">
-        <v>478.835169260622</v>
+        <v>560.2053557831242</v>
       </c>
       <c r="L30" t="n">
-        <v>1015.896977076077</v>
+        <v>1097.267163598579</v>
       </c>
       <c r="M30" t="n">
-        <v>1233.553983755562</v>
+        <v>1314.924170278064</v>
       </c>
       <c r="N30" t="n">
-        <v>1945.929319259081</v>
+        <v>1552.750555181465</v>
       </c>
       <c r="O30" t="n">
-        <v>2141.274203091314</v>
+        <v>1933.297688232823</v>
       </c>
       <c r="P30" t="n">
-        <v>2594.000768986113</v>
+        <v>2386.024254127622</v>
       </c>
       <c r="Q30" t="n">
         <v>2635.962204651225</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>521.8106977200725</v>
+        <v>521.8106977200721</v>
       </c>
       <c r="C31" t="n">
-        <v>433.5886792077403</v>
+        <v>433.58867920774</v>
       </c>
       <c r="D31" t="n">
-        <v>364.1862042109793</v>
+        <v>364.186204210979</v>
       </c>
       <c r="E31" t="n">
-        <v>296.987275044161</v>
+        <v>296.9872750441606</v>
       </c>
       <c r="F31" t="n">
-        <v>230.8114919618253</v>
+        <v>230.811491961825</v>
       </c>
       <c r="G31" t="n">
-        <v>143.0476364978325</v>
+        <v>185.8881225491945</v>
       </c>
       <c r="H31" t="n">
         <v>113.4930163399699</v>
@@ -6628,16 +6628,16 @@
         <v>621.6231495849229</v>
       </c>
       <c r="M31" t="n">
-        <v>925.7927676820334</v>
+        <v>925.7927676820332</v>
       </c>
       <c r="N31" t="n">
-        <v>1230.045538831694</v>
+        <v>1230.045538831693</v>
       </c>
       <c r="O31" t="n">
         <v>1501.094876588369</v>
       </c>
       <c r="P31" t="n">
-        <v>1720.921160851827</v>
+        <v>1720.921160851826</v>
       </c>
       <c r="Q31" t="n">
         <v>1814.020112116913</v>
@@ -6646,25 +6646,25 @@
         <v>1770.048761329093</v>
       </c>
       <c r="S31" t="n">
-        <v>1645.567711585428</v>
+        <v>1645.567711585427</v>
       </c>
       <c r="T31" t="n">
-        <v>1501.203113938577</v>
+        <v>1501.203113938576</v>
       </c>
       <c r="U31" t="n">
-        <v>1292.772128756834</v>
+        <v>1292.772128756833</v>
       </c>
       <c r="V31" t="n">
-        <v>1118.801804966522</v>
+        <v>1118.801804966521</v>
       </c>
       <c r="W31" t="n">
-        <v>910.0987993451356</v>
+        <v>910.098799345135</v>
       </c>
       <c r="X31" t="n">
-        <v>762.823412862693</v>
+        <v>762.8234128626924</v>
       </c>
       <c r="Y31" t="n">
-        <v>622.7449981347376</v>
+        <v>622.744998134737</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>994.6644580031004</v>
       </c>
       <c r="F32" t="n">
-        <v>666.1896575829014</v>
+        <v>666.1896575829015</v>
       </c>
       <c r="G32" t="n">
-        <v>331.9001737064345</v>
+        <v>331.9001737064348</v>
       </c>
       <c r="H32" t="n">
         <v>99.12938346146834</v>
@@ -6698,16 +6698,16 @@
         <v>73.0195453220072</v>
       </c>
       <c r="J32" t="n">
-        <v>285.5495688610216</v>
+        <v>285.5495688610215</v>
       </c>
       <c r="K32" t="n">
-        <v>724.8217856685435</v>
+        <v>724.8217856685433</v>
       </c>
       <c r="L32" t="n">
-        <v>1322.054441266961</v>
+        <v>1322.05444126696</v>
       </c>
       <c r="M32" t="n">
-        <v>1633.493121387332</v>
+        <v>2003.197390506202</v>
       </c>
       <c r="N32" t="n">
         <v>2311.025678112481</v>
@@ -6777,22 +6777,22 @@
         <v>73.0195453220072</v>
       </c>
       <c r="J33" t="n">
-        <v>205.907591682421</v>
+        <v>205.9075916824209</v>
       </c>
       <c r="K33" t="n">
-        <v>297.8346874813346</v>
+        <v>559.6552721237873</v>
       </c>
       <c r="L33" t="n">
-        <v>834.8964952967899</v>
+        <v>807.3703785582502</v>
       </c>
       <c r="M33" t="n">
-        <v>1424.930780707428</v>
+        <v>1025.027385237735</v>
       </c>
       <c r="N33" t="n">
-        <v>1662.757165610829</v>
+        <v>1737.402720741254</v>
       </c>
       <c r="O33" t="n">
-        <v>2248.025745527024</v>
+        <v>1932.747604573486</v>
       </c>
       <c r="P33" t="n">
         <v>2385.474170468286</v>
@@ -6838,19 +6838,19 @@
         <v>465.0974418767619</v>
       </c>
       <c r="D34" t="n">
-        <v>397.4919068338347</v>
+        <v>397.4919068338348</v>
       </c>
       <c r="E34" t="n">
-        <v>332.0899176208502</v>
+        <v>332.0899176208503</v>
       </c>
       <c r="F34" t="n">
         <v>267.7110744923485</v>
       </c>
       <c r="G34" t="n">
-        <v>181.7441589821894</v>
+        <v>181.7441589821895</v>
       </c>
       <c r="H34" t="n">
-        <v>111.1459927267991</v>
+        <v>111.1459927267988</v>
       </c>
       <c r="I34" t="n">
         <v>73.0195453220072</v>
@@ -6859,16 +6859,16 @@
         <v>145.2964836592916</v>
       </c>
       <c r="K34" t="n">
-        <v>341.8828378716622</v>
+        <v>341.8828378716619</v>
       </c>
       <c r="L34" t="n">
         <v>626.3566084718436</v>
       </c>
       <c r="M34" t="n">
-        <v>932.2874074177064</v>
+        <v>932.2874074177066</v>
       </c>
       <c r="N34" t="n">
-        <v>1238.301359416119</v>
+        <v>1238.30135941612</v>
       </c>
       <c r="O34" t="n">
         <v>1511.111878021547</v>
@@ -6877,7 +6877,7 @@
         <v>1732.699343133757</v>
       </c>
       <c r="Q34" t="n">
-        <v>1827.559475247596</v>
+        <v>1827.559475247597</v>
       </c>
       <c r="R34" t="n">
         <v>1785.385064413611</v>
@@ -6895,7 +6895,7 @@
         <v>1141.325867866374</v>
       </c>
       <c r="W34" t="n">
-        <v>934.4198021988215</v>
+        <v>934.4198021988216</v>
       </c>
       <c r="X34" t="n">
         <v>788.9413556702128</v>
@@ -6917,55 +6917,55 @@
         <v>1573.696200469277</v>
       </c>
       <c r="D35" t="n">
-        <v>1297.941606231935</v>
+        <v>1297.941606231936</v>
       </c>
       <c r="E35" t="n">
-        <v>994.6644580031002</v>
+        <v>994.6644580030998</v>
       </c>
       <c r="F35" t="n">
-        <v>666.189657582901</v>
+        <v>666.1896575829008</v>
       </c>
       <c r="G35" t="n">
         <v>331.9001737064341</v>
       </c>
       <c r="H35" t="n">
-        <v>99.12938346146838</v>
+        <v>99.12938346146835</v>
       </c>
       <c r="I35" t="n">
-        <v>73.01954532200723</v>
+        <v>73.01954532200722</v>
       </c>
       <c r="J35" t="n">
-        <v>285.5495688610216</v>
+        <v>285.5495688610215</v>
       </c>
       <c r="K35" t="n">
-        <v>724.8217856685435</v>
+        <v>724.8217856685433</v>
       </c>
       <c r="L35" t="n">
-        <v>1322.054441266961</v>
+        <v>1322.05444126696</v>
       </c>
       <c r="M35" t="n">
-        <v>2003.197390506202</v>
+        <v>1615.811705935429</v>
       </c>
       <c r="N35" t="n">
-        <v>2311.025678112482</v>
+        <v>2293.344262660577</v>
       </c>
       <c r="O35" t="n">
-        <v>2905.612821036038</v>
+        <v>2887.931405584134</v>
       </c>
       <c r="P35" t="n">
-        <v>3375.404808354028</v>
+        <v>3357.723392902124</v>
       </c>
       <c r="Q35" t="n">
-        <v>3650.977266100361</v>
+        <v>3633.295850648457</v>
       </c>
       <c r="R35" t="n">
         <v>3650.977266100361</v>
       </c>
       <c r="S35" t="n">
-        <v>3583.817755251122</v>
+        <v>3583.817755251121</v>
       </c>
       <c r="T35" t="n">
-        <v>3452.786187511961</v>
+        <v>3452.78618751196</v>
       </c>
       <c r="U35" t="n">
         <v>3281.628564107936</v>
@@ -7011,28 +7011,28 @@
         <v>113.6338439157638</v>
       </c>
       <c r="I36" t="n">
-        <v>73.01954532200723</v>
+        <v>73.01954532200722</v>
       </c>
       <c r="J36" t="n">
-        <v>205.907591682421</v>
+        <v>205.9075916824209</v>
       </c>
       <c r="K36" t="n">
-        <v>559.6552721237874</v>
+        <v>559.6552721237873</v>
       </c>
       <c r="L36" t="n">
-        <v>1096.717079939243</v>
+        <v>1096.717079939242</v>
       </c>
       <c r="M36" t="n">
         <v>1314.374086618727</v>
       </c>
       <c r="N36" t="n">
-        <v>1555.455539515782</v>
+        <v>1552.200471522129</v>
       </c>
       <c r="O36" t="n">
-        <v>2140.724119431977</v>
+        <v>1932.747604573486</v>
       </c>
       <c r="P36" t="n">
-        <v>2593.450685326776</v>
+        <v>2385.474170468286</v>
       </c>
       <c r="Q36" t="n">
         <v>2635.412120991888</v>
@@ -7075,28 +7075,28 @@
         <v>465.0974418767622</v>
       </c>
       <c r="D37" t="n">
-        <v>397.491906833835</v>
+        <v>397.4919068338351</v>
       </c>
       <c r="E37" t="n">
-        <v>332.0899176208505</v>
+        <v>332.0899176208506</v>
       </c>
       <c r="F37" t="n">
-        <v>267.7110744923487</v>
+        <v>267.7110744923489</v>
       </c>
       <c r="G37" t="n">
-        <v>181.7441589821897</v>
+        <v>181.7441589821898</v>
       </c>
       <c r="H37" t="n">
-        <v>111.1459927267989</v>
+        <v>111.1459927267991</v>
       </c>
       <c r="I37" t="n">
-        <v>73.01954532200723</v>
+        <v>73.01954532200722</v>
       </c>
       <c r="J37" t="n">
-        <v>145.2964836592915</v>
+        <v>145.2964836592917</v>
       </c>
       <c r="K37" t="n">
-        <v>341.882837871662</v>
+        <v>341.8828378716622</v>
       </c>
       <c r="L37" t="n">
         <v>626.3566084718436</v>
@@ -7132,10 +7132,10 @@
         <v>1141.325867866374</v>
       </c>
       <c r="W37" t="n">
-        <v>934.419802198822</v>
+        <v>934.4198021988219</v>
       </c>
       <c r="X37" t="n">
-        <v>788.9413556702133</v>
+        <v>788.9413556702132</v>
       </c>
       <c r="Y37" t="n">
         <v>650.6598808960916</v>
@@ -7154,46 +7154,46 @@
         <v>1573.696200469277</v>
       </c>
       <c r="D38" t="n">
-        <v>1297.941606231936</v>
+        <v>1297.941606231935</v>
       </c>
       <c r="E38" t="n">
-        <v>994.6644580031002</v>
+        <v>994.6644580030998</v>
       </c>
       <c r="F38" t="n">
-        <v>666.189657582901</v>
+        <v>666.1896575829011</v>
       </c>
       <c r="G38" t="n">
-        <v>331.9001737064341</v>
+        <v>331.9001737064343</v>
       </c>
       <c r="H38" t="n">
-        <v>99.12938346146838</v>
+        <v>99.12938346146835</v>
       </c>
       <c r="I38" t="n">
-        <v>73.01954532200723</v>
+        <v>73.01954532200722</v>
       </c>
       <c r="J38" t="n">
-        <v>285.5495688610216</v>
+        <v>285.5495688610215</v>
       </c>
       <c r="K38" t="n">
-        <v>673.6982376394421</v>
+        <v>724.8217856685433</v>
       </c>
       <c r="L38" t="n">
-        <v>1270.930893237859</v>
+        <v>1322.05444126696</v>
       </c>
       <c r="M38" t="n">
-        <v>1952.073842477101</v>
+        <v>1615.811705935429</v>
       </c>
       <c r="N38" t="n">
-        <v>2629.606399202249</v>
+        <v>2293.344262660577</v>
       </c>
       <c r="O38" t="n">
-        <v>3224.193542125805</v>
+        <v>2887.931405584134</v>
       </c>
       <c r="P38" t="n">
-        <v>3375.404808354028</v>
+        <v>3357.723392902124</v>
       </c>
       <c r="Q38" t="n">
-        <v>3650.977266100361</v>
+        <v>3633.295850648457</v>
       </c>
       <c r="R38" t="n">
         <v>3650.977266100361</v>
@@ -7248,28 +7248,28 @@
         <v>113.6338439157638</v>
       </c>
       <c r="I39" t="n">
-        <v>73.01954532200723</v>
+        <v>73.01954532200722</v>
       </c>
       <c r="J39" t="n">
-        <v>81.07746669541623</v>
+        <v>205.9075916824209</v>
       </c>
       <c r="K39" t="n">
-        <v>434.8251471367827</v>
+        <v>559.6552721237873</v>
       </c>
       <c r="L39" t="n">
-        <v>971.8869549522379</v>
+        <v>1096.717079939242</v>
       </c>
       <c r="M39" t="n">
-        <v>1189.543961631723</v>
+        <v>1314.374086618727</v>
       </c>
       <c r="N39" t="n">
-        <v>1901.919297135242</v>
+        <v>1552.200471522129</v>
       </c>
       <c r="O39" t="n">
-        <v>2456.002260385515</v>
+        <v>1932.747604573486</v>
       </c>
       <c r="P39" t="n">
-        <v>2593.450685326776</v>
+        <v>2385.474170468286</v>
       </c>
       <c r="Q39" t="n">
         <v>2635.412120991888</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>551.5225204352607</v>
+        <v>551.5225204352605</v>
       </c>
       <c r="C40" t="n">
-        <v>465.0974418767624</v>
+        <v>465.0974418767622</v>
       </c>
       <c r="D40" t="n">
-        <v>397.4919068338353</v>
+        <v>397.4919068338351</v>
       </c>
       <c r="E40" t="n">
-        <v>332.0899176208508</v>
+        <v>332.0899176208506</v>
       </c>
       <c r="F40" t="n">
-        <v>267.711074492349</v>
+        <v>267.7110744923489</v>
       </c>
       <c r="G40" t="n">
-        <v>181.7441589821899</v>
+        <v>181.7441589821898</v>
       </c>
       <c r="H40" t="n">
         <v>111.1459927267991</v>
       </c>
       <c r="I40" t="n">
-        <v>73.01954532200723</v>
+        <v>73.01954532200722</v>
       </c>
       <c r="J40" t="n">
         <v>145.2964836592917</v>
@@ -7336,16 +7336,16 @@
         <v>341.8828378716622</v>
       </c>
       <c r="L40" t="n">
-        <v>626.3566084718441</v>
+        <v>626.3566084718439</v>
       </c>
       <c r="M40" t="n">
-        <v>932.2874074177071</v>
+        <v>932.2874074177066</v>
       </c>
       <c r="N40" t="n">
         <v>1238.30135941612</v>
       </c>
       <c r="O40" t="n">
-        <v>1511.111878021548</v>
+        <v>1511.111878021547</v>
       </c>
       <c r="P40" t="n">
         <v>1732.699343133758</v>
@@ -7357,7 +7357,7 @@
         <v>1785.385064413611</v>
       </c>
       <c r="S40" t="n">
-        <v>1662.700954623779</v>
+        <v>1662.700954623778</v>
       </c>
       <c r="T40" t="n">
         <v>1520.133296930761</v>
@@ -7369,13 +7369,13 @@
         <v>1141.325867866374</v>
       </c>
       <c r="W40" t="n">
-        <v>934.4198021988221</v>
+        <v>934.4198021988219</v>
       </c>
       <c r="X40" t="n">
-        <v>788.9413556702134</v>
+        <v>788.9413556702132</v>
       </c>
       <c r="Y40" t="n">
-        <v>650.6598808960919</v>
+        <v>650.6598808960916</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7385,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1860.147613040282</v>
+        <v>1860.14761304028</v>
       </c>
       <c r="C41" t="n">
-        <v>1573.696200469278</v>
+        <v>1573.696200469277</v>
       </c>
       <c r="D41" t="n">
-        <v>1297.941606231936</v>
+        <v>1297.941606231935</v>
       </c>
       <c r="E41" t="n">
-        <v>994.6644580031009</v>
+        <v>994.6644580030998</v>
       </c>
       <c r="F41" t="n">
-        <v>666.1896575829019</v>
+        <v>666.1896575829011</v>
       </c>
       <c r="G41" t="n">
         <v>331.9001737064343</v>
       </c>
       <c r="H41" t="n">
-        <v>99.12938346146838</v>
+        <v>99.12938346146834</v>
       </c>
       <c r="I41" t="n">
-        <v>73.01954532200723</v>
+        <v>73.01954532200722</v>
       </c>
       <c r="J41" t="n">
-        <v>118.1439198406685</v>
+        <v>285.5495688610215</v>
       </c>
       <c r="K41" t="n">
-        <v>557.4161366481904</v>
+        <v>724.8217856685433</v>
       </c>
       <c r="L41" t="n">
-        <v>1154.648792246608</v>
+        <v>1322.05444126696</v>
       </c>
       <c r="M41" t="n">
-        <v>1835.791741485849</v>
+        <v>1615.811705935429</v>
       </c>
       <c r="N41" t="n">
-        <v>2513.324298210998</v>
+        <v>2293.344262660577</v>
       </c>
       <c r="O41" t="n">
-        <v>3107.911441134554</v>
+        <v>2887.931405584134</v>
       </c>
       <c r="P41" t="n">
-        <v>3567.91523365543</v>
+        <v>3357.723392902124</v>
       </c>
       <c r="Q41" t="n">
-        <v>3633.295850648458</v>
+        <v>3633.295850648457</v>
       </c>
       <c r="R41" t="n">
         <v>3650.977266100361</v>
@@ -7439,22 +7439,22 @@
         <v>3583.817755251122</v>
       </c>
       <c r="T41" t="n">
-        <v>3452.786187511962</v>
+        <v>3452.786187511961</v>
       </c>
       <c r="U41" t="n">
-        <v>3281.628564107937</v>
+        <v>3281.628564107936</v>
       </c>
       <c r="V41" t="n">
-        <v>3033.076781133775</v>
+        <v>3033.076781133773</v>
       </c>
       <c r="W41" t="n">
-        <v>2762.819230233069</v>
+        <v>2762.819230233068</v>
       </c>
       <c r="X41" t="n">
-        <v>2471.864576341398</v>
+        <v>2471.864576341396</v>
       </c>
       <c r="Y41" t="n">
-        <v>2164.236348734995</v>
+        <v>2164.236348734993</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>113.6338439157638</v>
       </c>
       <c r="I42" t="n">
-        <v>73.01954532200723</v>
+        <v>73.01954532200722</v>
       </c>
       <c r="J42" t="n">
-        <v>205.907591682421</v>
+        <v>205.9075916824209</v>
       </c>
       <c r="K42" t="n">
-        <v>297.8346874813346</v>
+        <v>559.6552721237873</v>
       </c>
       <c r="L42" t="n">
-        <v>834.8964952967899</v>
+        <v>1096.717079939242</v>
       </c>
       <c r="M42" t="n">
-        <v>1109.652639753891</v>
+        <v>1314.374086618727</v>
       </c>
       <c r="N42" t="n">
-        <v>1347.479024657292</v>
+        <v>1552.200471522129</v>
       </c>
       <c r="O42" t="n">
         <v>1932.747604573486</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>551.5225204352607</v>
+        <v>551.5225204352605</v>
       </c>
       <c r="C43" t="n">
-        <v>465.0974418767624</v>
+        <v>465.0974418767622</v>
       </c>
       <c r="D43" t="n">
-        <v>397.4919068338353</v>
+        <v>397.4919068338351</v>
       </c>
       <c r="E43" t="n">
-        <v>332.0899176208508</v>
+        <v>332.0899176208505</v>
       </c>
       <c r="F43" t="n">
-        <v>267.711074492349</v>
+        <v>267.7110744923488</v>
       </c>
       <c r="G43" t="n">
-        <v>181.7441589821899</v>
+        <v>181.7441589821898</v>
       </c>
       <c r="H43" t="n">
         <v>111.1459927267991</v>
       </c>
       <c r="I43" t="n">
-        <v>73.01954532200723</v>
+        <v>73.01954532200722</v>
       </c>
       <c r="J43" t="n">
         <v>145.2964836592917</v>
@@ -7594,7 +7594,7 @@
         <v>1785.385064413611</v>
       </c>
       <c r="S43" t="n">
-        <v>1662.700954623779</v>
+        <v>1662.700954623778</v>
       </c>
       <c r="T43" t="n">
         <v>1520.133296930761</v>
@@ -7606,13 +7606,13 @@
         <v>1141.325867866374</v>
       </c>
       <c r="W43" t="n">
-        <v>934.4198021988221</v>
+        <v>934.4198021988219</v>
       </c>
       <c r="X43" t="n">
-        <v>788.9413556702134</v>
+        <v>788.9413556702132</v>
       </c>
       <c r="Y43" t="n">
-        <v>650.6598808960919</v>
+        <v>650.6598808960916</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1860.147613040281</v>
+        <v>1860.14761304028</v>
       </c>
       <c r="C44" t="n">
-        <v>1573.696200469278</v>
+        <v>1573.696200469277</v>
       </c>
       <c r="D44" t="n">
-        <v>1297.941606231936</v>
+        <v>1297.941606231935</v>
       </c>
       <c r="E44" t="n">
-        <v>994.6644580031002</v>
+        <v>994.6644580030993</v>
       </c>
       <c r="F44" t="n">
-        <v>666.1896575829012</v>
+        <v>666.1896575829003</v>
       </c>
       <c r="G44" t="n">
-        <v>331.9001737064343</v>
+        <v>331.9001737064336</v>
       </c>
       <c r="H44" t="n">
-        <v>99.12938346146838</v>
+        <v>99.12938346146836</v>
       </c>
       <c r="I44" t="n">
-        <v>73.01954532200723</v>
+        <v>73.0195453220072</v>
       </c>
       <c r="J44" t="n">
-        <v>285.5495688610216</v>
+        <v>285.5495688610215</v>
       </c>
       <c r="K44" t="n">
-        <v>403.9178272230903</v>
+        <v>724.8217856685433</v>
       </c>
       <c r="L44" t="n">
-        <v>1001.150482821507</v>
+        <v>1322.05444126696</v>
       </c>
       <c r="M44" t="n">
-        <v>1682.293432060749</v>
+        <v>1615.811705935429</v>
       </c>
       <c r="N44" t="n">
-        <v>2293.344262660578</v>
+        <v>2293.344262660577</v>
       </c>
       <c r="O44" t="n">
-        <v>2887.931405584134</v>
+        <v>2887.931405584133</v>
       </c>
       <c r="P44" t="n">
-        <v>3357.723392902125</v>
+        <v>3357.723392902124</v>
       </c>
       <c r="Q44" t="n">
-        <v>3633.295850648458</v>
+        <v>3633.295850648457</v>
       </c>
       <c r="R44" t="n">
-        <v>3650.977266100361</v>
+        <v>3650.97726610036</v>
       </c>
       <c r="S44" t="n">
-        <v>3583.817755251122</v>
+        <v>3583.817755251121</v>
       </c>
       <c r="T44" t="n">
-        <v>3452.786187511961</v>
+        <v>3452.78618751196</v>
       </c>
       <c r="U44" t="n">
-        <v>3281.628564107936</v>
+        <v>3281.628564107935</v>
       </c>
       <c r="V44" t="n">
-        <v>3033.076781133774</v>
+        <v>3033.076781133773</v>
       </c>
       <c r="W44" t="n">
-        <v>2762.819230233068</v>
+        <v>2762.819230233067</v>
       </c>
       <c r="X44" t="n">
-        <v>2471.864576341397</v>
+        <v>2471.864576341396</v>
       </c>
       <c r="Y44" t="n">
-        <v>2164.236348734994</v>
+        <v>2164.236348734993</v>
       </c>
     </row>
     <row r="45">
@@ -7719,28 +7719,28 @@
         <v>213.0657695885552</v>
       </c>
       <c r="H45" t="n">
-        <v>113.6338439157638</v>
+        <v>113.6338439157637</v>
       </c>
       <c r="I45" t="n">
-        <v>73.01954532200723</v>
+        <v>73.0195453220072</v>
       </c>
       <c r="J45" t="n">
-        <v>205.907591682421</v>
+        <v>205.9075916824209</v>
       </c>
       <c r="K45" t="n">
-        <v>559.6552721237874</v>
+        <v>559.6552721237873</v>
       </c>
       <c r="L45" t="n">
-        <v>746.2257609154433</v>
+        <v>1096.717079939242</v>
       </c>
       <c r="M45" t="n">
-        <v>1424.930780707428</v>
+        <v>1314.374086618727</v>
       </c>
       <c r="N45" t="n">
-        <v>1662.757165610829</v>
+        <v>1552.200471522129</v>
       </c>
       <c r="O45" t="n">
-        <v>2248.025745527024</v>
+        <v>1932.747604573486</v>
       </c>
       <c r="P45" t="n">
         <v>2385.474170468286</v>
@@ -7780,49 +7780,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>551.5225204352605</v>
+        <v>551.5225204352603</v>
       </c>
       <c r="C46" t="n">
-        <v>465.0974418767622</v>
+        <v>465.097441876762</v>
       </c>
       <c r="D46" t="n">
-        <v>397.491906833835</v>
+        <v>397.4919068338348</v>
       </c>
       <c r="E46" t="n">
-        <v>332.0899176208505</v>
+        <v>332.0899176208503</v>
       </c>
       <c r="F46" t="n">
-        <v>267.7110744923487</v>
+        <v>267.7110744923485</v>
       </c>
       <c r="G46" t="n">
-        <v>181.7441589821897</v>
+        <v>181.7441589821895</v>
       </c>
       <c r="H46" t="n">
         <v>111.1459927267991</v>
       </c>
       <c r="I46" t="n">
-        <v>73.01954532200723</v>
+        <v>73.0195453220072</v>
       </c>
       <c r="J46" t="n">
-        <v>145.2964836592917</v>
+        <v>145.2964836592916</v>
       </c>
       <c r="K46" t="n">
-        <v>341.8828378716622</v>
+        <v>341.8828378716621</v>
       </c>
       <c r="L46" t="n">
-        <v>626.3566084718439</v>
+        <v>626.3566084718437</v>
       </c>
       <c r="M46" t="n">
-        <v>932.2874074177067</v>
+        <v>932.2874074177066</v>
       </c>
       <c r="N46" t="n">
-        <v>1238.30135941612</v>
+        <v>1238.301359416119</v>
       </c>
       <c r="O46" t="n">
         <v>1511.111878021547</v>
       </c>
       <c r="P46" t="n">
-        <v>1732.699343133758</v>
+        <v>1732.699343133757</v>
       </c>
       <c r="Q46" t="n">
         <v>1827.559475247597</v>
@@ -7843,13 +7843,13 @@
         <v>1141.325867866374</v>
       </c>
       <c r="W46" t="n">
-        <v>934.419802198822</v>
+        <v>934.4198021988218</v>
       </c>
       <c r="X46" t="n">
-        <v>788.9413556702133</v>
+        <v>788.9413556702131</v>
       </c>
       <c r="Y46" t="n">
-        <v>650.6598808960916</v>
+        <v>650.6598808960914</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>226.6880767567238</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L8" t="n">
-        <v>242.6424607116987</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>237.2222789689842</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>236.2891093383024</v>
+        <v>236.0112893083342</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>144.7174847160704</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>137.9399377950766</v>
       </c>
       <c r="O9" t="n">
-        <v>149.1944701561877</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>140.8504531560417</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,10 +8620,10 @@
         <v>145.8018296893165</v>
       </c>
       <c r="N10" t="n">
-        <v>134.2837701769765</v>
+        <v>134.5615902069446</v>
       </c>
       <c r="O10" t="n">
-        <v>145.3325841935542</v>
+        <v>145.0547641635861</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>108.3119699927878</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8699,19 +8699,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>406.6421799135817</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>172.3372971579886</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>47.85640426499913</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8772,19 +8772,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.8160131234802</v>
       </c>
       <c r="N12" t="n">
-        <v>413.4429038063928</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>92.09284384276168</v>
+        <v>124.0973111891967</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8933,22 +8933,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>117.8181940555373</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>184.558343786108</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>47.85640426499913</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>88.90221363893534</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>187.0729790092177</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>49.71626639468195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>11.5591163559333</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>47.85640426499913</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,25 +9240,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>57.41969019946941</v>
+        <v>187.0729790092177</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9398,25 +9398,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>85.96587511315613</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>102.653240757022</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>57.53623833547556</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>187.0729790092178</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9644,10 +9644,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>99.95817844755308</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>99.95817844755408</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>249.9079716350046</v>
+        <v>204.6619853095325</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9881,13 +9881,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>58.21486220922381</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>7.3615255871199</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>47.85640426499913</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>43.89892774192174</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>57.67589674506686</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,16 +9963,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10124,16 +10124,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>338.5265810874965</v>
       </c>
       <c r="P29" t="n">
-        <v>144.6830306048069</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>47.8564042649991</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>43.89892774192171</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10200,16 +10200,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>187.0729790092177</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10355,10 +10355,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>76.0748778172065</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>63.90826873635865</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>47.8564042649991</v>
+        <v>47.85640426499913</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>78.57094996912352</v>
       </c>
       <c r="M33" t="n">
-        <v>376.1386653850034</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,10 +10592,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>58.21486220922381</v>
       </c>
       <c r="N35" t="n">
-        <v>63.90826873635905</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>47.8564042649991</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10674,16 +10674,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>3.287947468336824</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>187.0729790092177</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>272.505465067022</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>58.21486220922381</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>47.8564042649991</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>362.3616963818586</v>
+        <v>187.0729790092177</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>58.21486220922381</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11075,10 +11075,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>311.9116427198523</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>57.6758967450665</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>187.0729790092177</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,16 +11297,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>58.21486220922381</v>
       </c>
       <c r="N44" t="n">
-        <v>370.1936656995406</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,19 +11379,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>16.80870992588405</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>187.0729790092177</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>337.3770810744137</v>
       </c>
       <c r="C11" t="n">
-        <v>319.9161311819406</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>309.326281031616</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>336.5736094831949</v>
       </c>
       <c r="F11" t="n">
-        <v>361.5192851526444</v>
+        <v>361.5192851526446</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>367.2758217743498</v>
       </c>
       <c r="H11" t="n">
-        <v>266.7723150791638</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>292.8139722617365</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>147.6021872224996</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.4752195928703</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>121.8900605095609</v>
+        <v>121.890060509561</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>55.87903129515736</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>100.0642874338644</v>
       </c>
       <c r="G13" t="n">
-        <v>11.08870736354751</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>106.2214173294844</v>
+        <v>106.2214173294845</v>
       </c>
       <c r="I13" t="n">
-        <v>74.07441566739152</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>177.4712138527345</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>240.8969375122774</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>241.1662377475241</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,22 +23498,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.5473104773204</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>334.7946389288992</v>
+        <v>334.7946389288993</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>144.7598657889934</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>264.9933445248683</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>60.39900194041856</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>101.0381779230991</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>263.643079700061</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>120.1110899552653</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>93.68065559234367</v>
+        <v>98.28531687956877</v>
       </c>
       <c r="G16" t="n">
-        <v>119.6575085374094</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>72.29544511309598</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>175.692243298439</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>131.7671390201069</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>239.3872671932285</v>
       </c>
       <c r="X16" t="n">
-        <v>178.5739242456746</v>
+        <v>178.5739242456747</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>42.4120811908487</v>
       </c>
       <c r="H31" t="n">
-        <v>42.41208119084843</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1130299.792674304</v>
+        <v>1130299.792674303</v>
       </c>
     </row>
     <row r="6">
@@ -26323,7 +26323,7 @@
         <v>118448.2668176026</v>
       </c>
       <c r="F2" t="n">
-        <v>127602.3735301237</v>
+        <v>127602.3735301236</v>
       </c>
       <c r="G2" t="n">
         <v>143682.3097262496</v>
@@ -26335,25 +26335,25 @@
         <v>143682.3097262496</v>
       </c>
       <c r="J2" t="n">
+        <v>143682.3097262496</v>
+      </c>
+      <c r="K2" t="n">
+        <v>143504.1789852478</v>
+      </c>
+      <c r="L2" t="n">
         <v>143682.3097262495</v>
       </c>
-      <c r="K2" t="n">
-        <v>143504.1789852479</v>
-      </c>
-      <c r="L2" t="n">
-        <v>143682.3097262497</v>
-      </c>
       <c r="M2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="N2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="O2" t="n">
+        <v>143682.3097262495</v>
+      </c>
+      <c r="P2" t="n">
         <v>143682.3097262496</v>
-      </c>
-      <c r="N2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="O2" t="n">
-        <v>143682.3097262496</v>
-      </c>
-      <c r="P2" t="n">
-        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>763025.4756481419</v>
       </c>
       <c r="F3" t="n">
-        <v>47027.41280214596</v>
+        <v>47027.41280214607</v>
       </c>
       <c r="G3" t="n">
-        <v>48319.20155233489</v>
+        <v>48319.20155233487</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>41747.2935404171</v>
+        <v>41747.29354041701</v>
       </c>
       <c r="K3" t="n">
-        <v>1769.67414045276</v>
+        <v>1769.674140452808</v>
       </c>
       <c r="L3" t="n">
-        <v>49742.3779957713</v>
+        <v>49742.37799577129</v>
       </c>
       <c r="M3" t="n">
         <v>161184.033179441</v>
       </c>
       <c r="N3" t="n">
-        <v>38983.2294403637</v>
+        <v>38983.22944036375</v>
       </c>
       <c r="O3" t="n">
-        <v>15606.41666480031</v>
+        <v>15606.41666480029</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26442,19 +26442,19 @@
         <v>173987.2869565518</v>
       </c>
       <c r="K4" t="n">
-        <v>172897.1527071327</v>
+        <v>172897.1527071329</v>
       </c>
       <c r="L4" t="n">
         <v>173987.2869565518</v>
       </c>
       <c r="M4" t="n">
-        <v>173987.2869565517</v>
+        <v>173987.2869565518</v>
       </c>
       <c r="N4" t="n">
-        <v>173987.2869565517</v>
+        <v>173987.2869565518</v>
       </c>
       <c r="O4" t="n">
-        <v>173987.2869565517</v>
+        <v>173987.2869565518</v>
       </c>
       <c r="P4" t="n">
         <v>173987.2869565517</v>
@@ -26485,7 +26485,7 @@
         <v>72940.24199810543</v>
       </c>
       <c r="H5" t="n">
-        <v>72940.24199810543</v>
+        <v>72940.24199810544</v>
       </c>
       <c r="I5" t="n">
         <v>72940.24199810543</v>
@@ -26500,16 +26500,16 @@
         <v>76841.6980666061</v>
       </c>
       <c r="M5" t="n">
-        <v>76841.69806660611</v>
+        <v>76841.6980666061</v>
       </c>
       <c r="N5" t="n">
-        <v>76841.69806660611</v>
+        <v>76841.6980666061</v>
       </c>
       <c r="O5" t="n">
-        <v>76841.69806660611</v>
+        <v>76841.6980666061</v>
       </c>
       <c r="P5" t="n">
-        <v>76841.69806660611</v>
+        <v>76841.6980666061</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-305026.6393374772</v>
+        <v>-305031.0529153453</v>
       </c>
       <c r="C6" t="n">
-        <v>-305026.6393374773</v>
+        <v>-305031.0529153454</v>
       </c>
       <c r="D6" t="n">
-        <v>-307088.0180269486</v>
+        <v>-307089.6949386115</v>
       </c>
       <c r="E6" t="n">
-        <v>-813227.5240150733</v>
+        <v>-813588.0103423396</v>
       </c>
       <c r="F6" t="n">
-        <v>-116078.7644152685</v>
+        <v>-116308.4777894991</v>
       </c>
       <c r="G6" t="n">
-        <v>-158768.508763131</v>
+        <v>-158768.5087631309</v>
       </c>
       <c r="H6" t="n">
         <v>-110449.3072107961</v>
@@ -26543,22 +26543,22 @@
         <v>-110449.3072107961</v>
       </c>
       <c r="J6" t="n">
-        <v>-148893.9688373254</v>
+        <v>-148893.9688373253</v>
       </c>
       <c r="K6" t="n">
-        <v>-108272.8532345107</v>
+        <v>-108275.3979593824</v>
       </c>
       <c r="L6" t="n">
-        <v>-156889.0532926795</v>
+        <v>-156889.0532926797</v>
       </c>
       <c r="M6" t="n">
-        <v>-268330.7084763492</v>
+        <v>-268330.7084763494</v>
       </c>
       <c r="N6" t="n">
-        <v>-146129.904737272</v>
+        <v>-146129.9047372721</v>
       </c>
       <c r="O6" t="n">
-        <v>-122753.0919617086</v>
+        <v>-122753.0919617087</v>
       </c>
       <c r="P6" t="n">
         <v>-107146.6752969082</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="F2" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="G2" t="n">
         <v>107.5347330837811</v>
@@ -26707,22 +26707,22 @@
         <v>107.5347330837811</v>
       </c>
       <c r="J2" t="n">
+        <v>81.68599332571452</v>
+      </c>
+      <c r="K2" t="n">
+        <v>79.90702277141899</v>
+      </c>
+      <c r="L2" t="n">
+        <v>81.68599332571452</v>
+      </c>
+      <c r="M2" t="n">
+        <v>81.68599332571452</v>
+      </c>
+      <c r="N2" t="n">
+        <v>81.68599332571452</v>
+      </c>
+      <c r="O2" t="n">
         <v>81.68599332571453</v>
-      </c>
-      <c r="K2" t="n">
-        <v>79.90702277141898</v>
-      </c>
-      <c r="L2" t="n">
-        <v>81.68599332571451</v>
-      </c>
-      <c r="M2" t="n">
-        <v>81.68599332571449</v>
-      </c>
-      <c r="N2" t="n">
-        <v>81.68599332571449</v>
-      </c>
-      <c r="O2" t="n">
-        <v>81.68599332571449</v>
       </c>
       <c r="P2" t="n">
         <v>81.68599332571449</v>
@@ -26762,22 +26762,22 @@
         <v>664.20109398996</v>
       </c>
       <c r="K3" t="n">
-        <v>664.2010939899601</v>
+        <v>664.20109398996</v>
       </c>
       <c r="L3" t="n">
-        <v>664.2010939899601</v>
+        <v>664.20109398996</v>
       </c>
       <c r="M3" t="n">
-        <v>664.2010939899601</v>
+        <v>664.20109398996</v>
       </c>
       <c r="N3" t="n">
-        <v>664.2010939899601</v>
+        <v>664.20109398996</v>
       </c>
       <c r="O3" t="n">
-        <v>664.2010939899601</v>
+        <v>664.20109398996</v>
       </c>
       <c r="P3" t="n">
-        <v>664.2010939899601</v>
+        <v>664.20109398996</v>
       </c>
     </row>
     <row r="4">
@@ -26799,16 +26799,16 @@
         <v>653.67157542599</v>
       </c>
       <c r="F4" t="n">
-        <v>812.8342216036825</v>
+        <v>812.8342216036827</v>
       </c>
       <c r="G4" t="n">
-        <v>812.8342216036825</v>
+        <v>812.8342216036827</v>
       </c>
       <c r="H4" t="n">
-        <v>812.8342216036825</v>
+        <v>812.834221603683</v>
       </c>
       <c r="I4" t="n">
-        <v>812.8342216036825</v>
+        <v>812.8342216036827</v>
       </c>
       <c r="J4" t="n">
         <v>912.7443165250902</v>
@@ -26820,16 +26820,16 @@
         <v>912.7443165250901</v>
       </c>
       <c r="M4" t="n">
-        <v>912.7443165250903</v>
+        <v>912.7443165250902</v>
       </c>
       <c r="N4" t="n">
-        <v>912.7443165250903</v>
+        <v>912.7443165250902</v>
       </c>
       <c r="O4" t="n">
-        <v>912.7443165250903</v>
+        <v>912.7443165250902</v>
       </c>
       <c r="P4" t="n">
-        <v>912.7443165250903</v>
+        <v>912.7443165250901</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="F2" t="n">
-        <v>1.77897055429554</v>
+        <v>1.778970554295589</v>
       </c>
       <c r="G2" t="n">
-        <v>60.39900194041861</v>
+        <v>60.39900194041859</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.50802083100039</v>
+        <v>19.50802083100034</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.995204332975845e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>62.17797249471413</v>
+        <v>62.17797249471411</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>19.50802083100039</v>
+        <v>19.50802083100036</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27021,7 +27021,7 @@
         <v>646.7955296842786</v>
       </c>
       <c r="F4" t="n">
-        <v>159.1626461776925</v>
+        <v>159.1626461776927</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>99.91009492140768</v>
+        <v>99.91009492140745</v>
       </c>
       <c r="K4" t="n">
         <v>6.876045741711323</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>646.7955296842788</v>
+        <v>646.7955296842787</v>
       </c>
       <c r="N4" t="n">
-        <v>159.1626461776925</v>
+        <v>159.1626461776927</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="K2" t="n">
-        <v>1.77897055429554</v>
+        <v>1.778970554295589</v>
       </c>
       <c r="L2" t="n">
-        <v>60.39900194041861</v>
+        <v>60.39900194041859</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>19.50802083100039</v>
+        <v>19.50802083100034</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.995204332975845e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27267,7 +27267,7 @@
         <v>646.7955296842786</v>
       </c>
       <c r="N4" t="n">
-        <v>159.1626461776925</v>
+        <v>159.1626461776927</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>375.8577959217691</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>3.934278125245373</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>343.1845476281136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27935,10 +27935,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>150.7690347136895</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27983,19 +27983,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>193.2886829531102</v>
+        <v>194.85489893178</v>
       </c>
       <c r="U9" t="n">
-        <v>219.8849609916754</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>160.3707753569164</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>141.7394272765009</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>18.93451147168993</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,19 +28050,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>79.28599750998295</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
-        <v>221.0695436865701</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>219.6532342997377</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="C11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="D11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="E11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="F11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="G11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="H11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="I11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="T11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="U11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="V11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="W11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="X11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="Y11" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="C13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="D13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="E13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="F13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="G13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="H13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="I13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="J13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="K13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="L13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="M13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="N13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="O13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="P13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="R13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="S13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="T13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="U13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="V13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="W13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="X13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
       <c r="Y13" t="n">
-        <v>45.35676058906697</v>
+        <v>45.35676058906689</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="C14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="D14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="E14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="F14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="G14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="H14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="I14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="T14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="U14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="V14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="W14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="X14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="Y14" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="C16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="D16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="E16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="F16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="G16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="H16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="I16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="J16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="K16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="L16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="M16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="N16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="O16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="P16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="Q16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="R16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="S16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="T16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="U16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="V16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="W16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="X16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.13573114336251</v>
+        <v>47.13573114336248</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>107.5347330837811</v>
       </c>
       <c r="I17" t="n">
-        <v>107.534733083781</v>
+        <v>107.5347330837811</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28743,28 +28743,28 @@
         <v>107.5347330837811</v>
       </c>
       <c r="J19" t="n">
-        <v>8.678984904215099</v>
+        <v>16.44129838625598</v>
       </c>
       <c r="K19" t="n">
-        <v>7.762313482039886</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>107.5347330837811</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>107.5347330837811</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.5347330837811</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>107.5347330837811</v>
@@ -28819,7 +28819,7 @@
         <v>107.5347330837811</v>
       </c>
       <c r="I20" t="n">
-        <v>107.5347330837811</v>
+        <v>107.534733083781</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28980,28 +28980,28 @@
         <v>107.5347330837811</v>
       </c>
       <c r="J22" t="n">
+        <v>8.678984904215099</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
         <v>107.5347330837811</v>
       </c>
-      <c r="K22" t="n">
-        <v>16.44129838625503</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>107.5347330837811</v>
       </c>
       <c r="P22" t="n">
-        <v>107.5347330837811</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>7.762313482040707</v>
       </c>
       <c r="R22" t="n">
         <v>107.5347330837811</v>
@@ -29223,22 +29223,22 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>7.76231348203973</v>
+        <v>7.762313482040895</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
         <v>107.5347330837811</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>107.5347330837811</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>107.5347330837811</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="C26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="D26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="E26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="F26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="G26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="H26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="I26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="T26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="U26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="V26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="W26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="X26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="C28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="D28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="E28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="F28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="G28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="H28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="I28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="J28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="K28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="L28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="M28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="N28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="O28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="P28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="R28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="S28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="T28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="U28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="V28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="W28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="X28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.68599332571453</v>
+        <v>81.68599332571452</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="C29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="D29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="E29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="F29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="G29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="H29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="I29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="T29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="U29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="V29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="W29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="X29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="C31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="D31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="E31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="F31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="G31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="H31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="I31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="J31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="K31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="L31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="M31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="N31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="O31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="P31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="R31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="S31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="T31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="U31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="V31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="W31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="X31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.90702277141898</v>
+        <v>79.90702277141899</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="C32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="D32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="E32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="F32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="G32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="H32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="I32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="T32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="U32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="V32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="W32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="X32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="Y32" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="C34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="D34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="E34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="F34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="G34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="H34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="I34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="J34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="K34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="L34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="M34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="N34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="O34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="P34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="Q34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="R34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="S34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="T34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="U34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="V34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="W34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="X34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.68599332571451</v>
+        <v>81.68599332571452</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="C35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="D35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="E35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="F35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="G35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="H35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="I35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="T35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="U35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="V35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="W35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="X35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="Y35" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="C37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="D37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="E37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="F37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="G37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="H37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="I37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="J37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="K37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="L37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571426</v>
       </c>
       <c r="M37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="N37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="O37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="P37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="Q37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="R37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="S37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="T37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="U37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="V37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="W37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="X37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="C38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="D38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="E38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="F38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="G38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="H38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="I38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="T38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="U38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="V38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="W38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="X38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="Y38" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="C40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="D40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="E40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="F40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="G40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="H40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="I40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="J40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="K40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="L40" t="n">
-        <v>81.68599332571469</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="M40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571429</v>
       </c>
       <c r="N40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="O40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="P40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="Q40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="R40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="S40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="T40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="U40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="V40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="W40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="X40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
       <c r="Y40" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571452</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="C41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="D41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="E41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="F41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="G41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="H41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="I41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="T41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="U41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="V41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="W41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="X41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="Y41" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="C43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="D43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="E43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="F43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="G43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="H43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="I43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="J43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="K43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="L43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="M43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="N43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="O43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="P43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.68599332571466</v>
+        <v>81.68599332571422</v>
       </c>
       <c r="R43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="S43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="T43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="U43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="V43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="W43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="X43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
       <c r="Y43" t="n">
-        <v>81.68599332571449</v>
+        <v>81.68599332571453</v>
       </c>
     </row>
     <row r="44">
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.670155151718431</v>
+        <v>2.67015515171843</v>
       </c>
       <c r="H29" t="n">
         <v>27.34572644753638</v>
@@ -33181,16 +33181,16 @@
         <v>102.9411564866249</v>
       </c>
       <c r="J29" t="n">
-        <v>226.6260808081624</v>
+        <v>226.6260808081623</v>
       </c>
       <c r="K29" t="n">
-        <v>339.6537483804036</v>
+        <v>339.6537483804035</v>
       </c>
       <c r="L29" t="n">
-        <v>421.3705091048066</v>
+        <v>421.3705091048065</v>
       </c>
       <c r="M29" t="n">
-        <v>468.8558807841792</v>
+        <v>468.8558807841791</v>
       </c>
       <c r="N29" t="n">
         <v>476.4424591089992</v>
@@ -33199,10 +33199,10 @@
         <v>449.891103819099</v>
       </c>
       <c r="P29" t="n">
-        <v>383.9716485110503</v>
+        <v>383.9716485110502</v>
       </c>
       <c r="Q29" t="n">
-        <v>288.3467171401339</v>
+        <v>288.3467171401338</v>
       </c>
       <c r="R29" t="n">
         <v>167.729133549133</v>
@@ -33211,7 +33211,7 @@
         <v>60.84616051978379</v>
       </c>
       <c r="T29" t="n">
-        <v>11.68860417664744</v>
+        <v>11.68860417664743</v>
       </c>
       <c r="U29" t="n">
         <v>0.2136124121374744</v>
@@ -33254,16 +33254,16 @@
         <v>1.428658956884065</v>
       </c>
       <c r="H30" t="n">
-        <v>13.79783782043295</v>
+        <v>13.79783782043294</v>
       </c>
       <c r="I30" t="n">
-        <v>49.18847724359611</v>
+        <v>49.1884772435961</v>
       </c>
       <c r="J30" t="n">
         <v>134.9769411852616</v>
       </c>
       <c r="K30" t="n">
-        <v>230.697091296494</v>
+        <v>230.6970912964939</v>
       </c>
       <c r="L30" t="n">
         <v>310.2007090374809</v>
@@ -33272,28 +33272,28 @@
         <v>361.9895962245282</v>
       </c>
       <c r="N30" t="n">
-        <v>371.5703837029306</v>
+        <v>371.5703837029305</v>
       </c>
       <c r="O30" t="n">
         <v>339.9143089214468</v>
       </c>
       <c r="P30" t="n">
-        <v>272.8112002842914</v>
+        <v>272.8112002842913</v>
       </c>
       <c r="Q30" t="n">
         <v>182.3670626366396</v>
       </c>
       <c r="R30" t="n">
-        <v>88.70217628794225</v>
+        <v>88.70217628794224</v>
       </c>
       <c r="S30" t="n">
         <v>26.53671351931584</v>
       </c>
       <c r="T30" t="n">
-        <v>5.758498163931822</v>
+        <v>5.75849816393182</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09399072084763591</v>
+        <v>0.09399072084763589</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33339,7 +33339,7 @@
         <v>36.01929867079981</v>
       </c>
       <c r="J31" t="n">
-        <v>84.68019521245769</v>
+        <v>84.68019521245768</v>
       </c>
       <c r="K31" t="n">
         <v>139.1555734621588</v>
@@ -33357,22 +33357,22 @@
         <v>169.2950591697689</v>
       </c>
       <c r="P31" t="n">
-        <v>144.8611697449578</v>
+        <v>144.8611697449577</v>
       </c>
       <c r="Q31" t="n">
         <v>100.294365192484</v>
       </c>
       <c r="R31" t="n">
-        <v>53.85473132580888</v>
+        <v>53.85473132580887</v>
       </c>
       <c r="S31" t="n">
         <v>20.87333601932382</v>
       </c>
       <c r="T31" t="n">
-        <v>5.117614986480018</v>
+        <v>5.117614986480017</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06533125514655352</v>
+        <v>0.06533125514655351</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.670155151718431</v>
+        <v>2.67015515171843</v>
       </c>
       <c r="H32" t="n">
         <v>27.34572644753638</v>
@@ -33418,16 +33418,16 @@
         <v>102.9411564866249</v>
       </c>
       <c r="J32" t="n">
-        <v>226.6260808081624</v>
+        <v>226.6260808081623</v>
       </c>
       <c r="K32" t="n">
-        <v>339.6537483804036</v>
+        <v>339.6537483804035</v>
       </c>
       <c r="L32" t="n">
-        <v>421.3705091048066</v>
+        <v>421.3705091048065</v>
       </c>
       <c r="M32" t="n">
-        <v>468.8558807841792</v>
+        <v>468.8558807841791</v>
       </c>
       <c r="N32" t="n">
         <v>476.4424591089992</v>
@@ -33436,10 +33436,10 @@
         <v>449.891103819099</v>
       </c>
       <c r="P32" t="n">
-        <v>383.9716485110503</v>
+        <v>383.9716485110502</v>
       </c>
       <c r="Q32" t="n">
-        <v>288.3467171401339</v>
+        <v>288.3467171401338</v>
       </c>
       <c r="R32" t="n">
         <v>167.729133549133</v>
@@ -33448,7 +33448,7 @@
         <v>60.84616051978379</v>
       </c>
       <c r="T32" t="n">
-        <v>11.68860417664744</v>
+        <v>11.68860417664743</v>
       </c>
       <c r="U32" t="n">
         <v>0.2136124121374744</v>
@@ -33491,16 +33491,16 @@
         <v>1.428658956884065</v>
       </c>
       <c r="H33" t="n">
-        <v>13.79783782043295</v>
+        <v>13.79783782043294</v>
       </c>
       <c r="I33" t="n">
-        <v>49.18847724359611</v>
+        <v>49.1884772435961</v>
       </c>
       <c r="J33" t="n">
         <v>134.9769411852616</v>
       </c>
       <c r="K33" t="n">
-        <v>230.697091296494</v>
+        <v>230.6970912964939</v>
       </c>
       <c r="L33" t="n">
         <v>310.2007090374809</v>
@@ -33509,28 +33509,28 @@
         <v>361.9895962245282</v>
       </c>
       <c r="N33" t="n">
-        <v>371.5703837029306</v>
+        <v>371.5703837029305</v>
       </c>
       <c r="O33" t="n">
         <v>339.9143089214468</v>
       </c>
       <c r="P33" t="n">
-        <v>272.8112002842914</v>
+        <v>272.8112002842913</v>
       </c>
       <c r="Q33" t="n">
         <v>182.3670626366396</v>
       </c>
       <c r="R33" t="n">
-        <v>88.70217628794225</v>
+        <v>88.70217628794224</v>
       </c>
       <c r="S33" t="n">
         <v>26.53671351931584</v>
       </c>
       <c r="T33" t="n">
-        <v>5.758498163931822</v>
+        <v>5.75849816393182</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09399072084763591</v>
+        <v>0.09399072084763589</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33576,7 +33576,7 @@
         <v>36.01929867079981</v>
       </c>
       <c r="J34" t="n">
-        <v>84.68019521245769</v>
+        <v>84.68019521245768</v>
       </c>
       <c r="K34" t="n">
         <v>139.1555734621588</v>
@@ -33594,22 +33594,22 @@
         <v>169.2950591697689</v>
       </c>
       <c r="P34" t="n">
-        <v>144.8611697449578</v>
+        <v>144.8611697449577</v>
       </c>
       <c r="Q34" t="n">
         <v>100.294365192484</v>
       </c>
       <c r="R34" t="n">
-        <v>53.85473132580888</v>
+        <v>53.85473132580887</v>
       </c>
       <c r="S34" t="n">
         <v>20.87333601932382</v>
       </c>
       <c r="T34" t="n">
-        <v>5.117614986480018</v>
+        <v>5.117614986480017</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06533125514655352</v>
+        <v>0.06533125514655351</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.670155151718431</v>
+        <v>2.67015515171843</v>
       </c>
       <c r="H35" t="n">
         <v>27.34572644753638</v>
@@ -33655,16 +33655,16 @@
         <v>102.9411564866249</v>
       </c>
       <c r="J35" t="n">
-        <v>226.6260808081624</v>
+        <v>226.6260808081623</v>
       </c>
       <c r="K35" t="n">
-        <v>339.6537483804036</v>
+        <v>339.6537483804035</v>
       </c>
       <c r="L35" t="n">
-        <v>421.3705091048066</v>
+        <v>421.3705091048065</v>
       </c>
       <c r="M35" t="n">
-        <v>468.8558807841792</v>
+        <v>468.8558807841791</v>
       </c>
       <c r="N35" t="n">
         <v>476.4424591089992</v>
@@ -33673,10 +33673,10 @@
         <v>449.891103819099</v>
       </c>
       <c r="P35" t="n">
-        <v>383.9716485110503</v>
+        <v>383.9716485110502</v>
       </c>
       <c r="Q35" t="n">
-        <v>288.3467171401339</v>
+        <v>288.3467171401338</v>
       </c>
       <c r="R35" t="n">
         <v>167.729133549133</v>
@@ -33685,7 +33685,7 @@
         <v>60.84616051978379</v>
       </c>
       <c r="T35" t="n">
-        <v>11.68860417664744</v>
+        <v>11.68860417664743</v>
       </c>
       <c r="U35" t="n">
         <v>0.2136124121374744</v>
@@ -33728,16 +33728,16 @@
         <v>1.428658956884065</v>
       </c>
       <c r="H36" t="n">
-        <v>13.79783782043295</v>
+        <v>13.79783782043294</v>
       </c>
       <c r="I36" t="n">
-        <v>49.18847724359611</v>
+        <v>49.1884772435961</v>
       </c>
       <c r="J36" t="n">
         <v>134.9769411852616</v>
       </c>
       <c r="K36" t="n">
-        <v>230.697091296494</v>
+        <v>230.6970912964939</v>
       </c>
       <c r="L36" t="n">
         <v>310.2007090374809</v>
@@ -33746,28 +33746,28 @@
         <v>361.9895962245282</v>
       </c>
       <c r="N36" t="n">
-        <v>371.5703837029306</v>
+        <v>371.5703837029305</v>
       </c>
       <c r="O36" t="n">
         <v>339.9143089214468</v>
       </c>
       <c r="P36" t="n">
-        <v>272.8112002842914</v>
+        <v>272.8112002842913</v>
       </c>
       <c r="Q36" t="n">
         <v>182.3670626366396</v>
       </c>
       <c r="R36" t="n">
-        <v>88.70217628794225</v>
+        <v>88.70217628794224</v>
       </c>
       <c r="S36" t="n">
         <v>26.53671351931584</v>
       </c>
       <c r="T36" t="n">
-        <v>5.758498163931822</v>
+        <v>5.75849816393182</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09399072084763591</v>
+        <v>0.09399072084763589</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33813,7 +33813,7 @@
         <v>36.01929867079981</v>
       </c>
       <c r="J37" t="n">
-        <v>84.68019521245769</v>
+        <v>84.68019521245768</v>
       </c>
       <c r="K37" t="n">
         <v>139.1555734621588</v>
@@ -33831,22 +33831,22 @@
         <v>169.2950591697689</v>
       </c>
       <c r="P37" t="n">
-        <v>144.8611697449578</v>
+        <v>144.8611697449577</v>
       </c>
       <c r="Q37" t="n">
         <v>100.294365192484</v>
       </c>
       <c r="R37" t="n">
-        <v>53.85473132580888</v>
+        <v>53.85473132580887</v>
       </c>
       <c r="S37" t="n">
         <v>20.87333601932382</v>
       </c>
       <c r="T37" t="n">
-        <v>5.117614986480018</v>
+        <v>5.117614986480017</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06533125514655352</v>
+        <v>0.06533125514655351</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.670155151718431</v>
+        <v>2.67015515171843</v>
       </c>
       <c r="H38" t="n">
         <v>27.34572644753638</v>
@@ -33892,16 +33892,16 @@
         <v>102.9411564866249</v>
       </c>
       <c r="J38" t="n">
-        <v>226.6260808081624</v>
+        <v>226.6260808081623</v>
       </c>
       <c r="K38" t="n">
-        <v>339.6537483804036</v>
+        <v>339.6537483804035</v>
       </c>
       <c r="L38" t="n">
-        <v>421.3705091048066</v>
+        <v>421.3705091048065</v>
       </c>
       <c r="M38" t="n">
-        <v>468.8558807841792</v>
+        <v>468.8558807841791</v>
       </c>
       <c r="N38" t="n">
         <v>476.4424591089992</v>
@@ -33910,10 +33910,10 @@
         <v>449.891103819099</v>
       </c>
       <c r="P38" t="n">
-        <v>383.9716485110503</v>
+        <v>383.9716485110502</v>
       </c>
       <c r="Q38" t="n">
-        <v>288.3467171401339</v>
+        <v>288.3467171401338</v>
       </c>
       <c r="R38" t="n">
         <v>167.729133549133</v>
@@ -33922,7 +33922,7 @@
         <v>60.84616051978379</v>
       </c>
       <c r="T38" t="n">
-        <v>11.68860417664744</v>
+        <v>11.68860417664743</v>
       </c>
       <c r="U38" t="n">
         <v>0.2136124121374744</v>
@@ -33965,16 +33965,16 @@
         <v>1.428658956884065</v>
       </c>
       <c r="H39" t="n">
-        <v>13.79783782043295</v>
+        <v>13.79783782043294</v>
       </c>
       <c r="I39" t="n">
-        <v>49.18847724359611</v>
+        <v>49.1884772435961</v>
       </c>
       <c r="J39" t="n">
         <v>134.9769411852616</v>
       </c>
       <c r="K39" t="n">
-        <v>230.697091296494</v>
+        <v>230.6970912964939</v>
       </c>
       <c r="L39" t="n">
         <v>310.2007090374809</v>
@@ -33983,28 +33983,28 @@
         <v>361.9895962245282</v>
       </c>
       <c r="N39" t="n">
-        <v>371.5703837029306</v>
+        <v>371.5703837029305</v>
       </c>
       <c r="O39" t="n">
         <v>339.9143089214468</v>
       </c>
       <c r="P39" t="n">
-        <v>272.8112002842914</v>
+        <v>272.8112002842913</v>
       </c>
       <c r="Q39" t="n">
         <v>182.3670626366396</v>
       </c>
       <c r="R39" t="n">
-        <v>88.70217628794225</v>
+        <v>88.70217628794224</v>
       </c>
       <c r="S39" t="n">
         <v>26.53671351931584</v>
       </c>
       <c r="T39" t="n">
-        <v>5.758498163931822</v>
+        <v>5.75849816393182</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09399072084763591</v>
+        <v>0.09399072084763589</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34050,7 +34050,7 @@
         <v>36.01929867079981</v>
       </c>
       <c r="J40" t="n">
-        <v>84.68019521245769</v>
+        <v>84.68019521245768</v>
       </c>
       <c r="K40" t="n">
         <v>139.1555734621588</v>
@@ -34068,22 +34068,22 @@
         <v>169.2950591697689</v>
       </c>
       <c r="P40" t="n">
-        <v>144.8611697449578</v>
+        <v>144.8611697449577</v>
       </c>
       <c r="Q40" t="n">
         <v>100.294365192484</v>
       </c>
       <c r="R40" t="n">
-        <v>53.85473132580888</v>
+        <v>53.85473132580887</v>
       </c>
       <c r="S40" t="n">
         <v>20.87333601932382</v>
       </c>
       <c r="T40" t="n">
-        <v>5.117614986480018</v>
+        <v>5.117614986480017</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06533125514655352</v>
+        <v>0.06533125514655351</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.670155151718431</v>
+        <v>2.67015515171843</v>
       </c>
       <c r="H41" t="n">
         <v>27.34572644753638</v>
@@ -34129,16 +34129,16 @@
         <v>102.9411564866249</v>
       </c>
       <c r="J41" t="n">
-        <v>226.6260808081624</v>
+        <v>226.6260808081623</v>
       </c>
       <c r="K41" t="n">
-        <v>339.6537483804036</v>
+        <v>339.6537483804035</v>
       </c>
       <c r="L41" t="n">
-        <v>421.3705091048066</v>
+        <v>421.3705091048065</v>
       </c>
       <c r="M41" t="n">
-        <v>468.8558807841792</v>
+        <v>468.8558807841791</v>
       </c>
       <c r="N41" t="n">
         <v>476.4424591089992</v>
@@ -34147,10 +34147,10 @@
         <v>449.891103819099</v>
       </c>
       <c r="P41" t="n">
-        <v>383.9716485110503</v>
+        <v>383.9716485110502</v>
       </c>
       <c r="Q41" t="n">
-        <v>288.3467171401339</v>
+        <v>288.3467171401338</v>
       </c>
       <c r="R41" t="n">
         <v>167.729133549133</v>
@@ -34159,7 +34159,7 @@
         <v>60.84616051978379</v>
       </c>
       <c r="T41" t="n">
-        <v>11.68860417664744</v>
+        <v>11.68860417664743</v>
       </c>
       <c r="U41" t="n">
         <v>0.2136124121374744</v>
@@ -34202,16 +34202,16 @@
         <v>1.428658956884065</v>
       </c>
       <c r="H42" t="n">
-        <v>13.79783782043295</v>
+        <v>13.79783782043294</v>
       </c>
       <c r="I42" t="n">
-        <v>49.18847724359611</v>
+        <v>49.1884772435961</v>
       </c>
       <c r="J42" t="n">
         <v>134.9769411852616</v>
       </c>
       <c r="K42" t="n">
-        <v>230.697091296494</v>
+        <v>230.6970912964939</v>
       </c>
       <c r="L42" t="n">
         <v>310.2007090374809</v>
@@ -34220,28 +34220,28 @@
         <v>361.9895962245282</v>
       </c>
       <c r="N42" t="n">
-        <v>371.5703837029306</v>
+        <v>371.5703837029305</v>
       </c>
       <c r="O42" t="n">
         <v>339.9143089214468</v>
       </c>
       <c r="P42" t="n">
-        <v>272.8112002842914</v>
+        <v>272.8112002842913</v>
       </c>
       <c r="Q42" t="n">
         <v>182.3670626366396</v>
       </c>
       <c r="R42" t="n">
-        <v>88.70217628794225</v>
+        <v>88.70217628794224</v>
       </c>
       <c r="S42" t="n">
         <v>26.53671351931584</v>
       </c>
       <c r="T42" t="n">
-        <v>5.758498163931822</v>
+        <v>5.75849816393182</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09399072084763591</v>
+        <v>0.09399072084763589</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34287,7 +34287,7 @@
         <v>36.01929867079981</v>
       </c>
       <c r="J43" t="n">
-        <v>84.68019521245769</v>
+        <v>84.68019521245768</v>
       </c>
       <c r="K43" t="n">
         <v>139.1555734621588</v>
@@ -34305,22 +34305,22 @@
         <v>169.2950591697689</v>
       </c>
       <c r="P43" t="n">
-        <v>144.8611697449578</v>
+        <v>144.8611697449577</v>
       </c>
       <c r="Q43" t="n">
         <v>100.294365192484</v>
       </c>
       <c r="R43" t="n">
-        <v>53.85473132580888</v>
+        <v>53.85473132580887</v>
       </c>
       <c r="S43" t="n">
         <v>20.87333601932382</v>
       </c>
       <c r="T43" t="n">
-        <v>5.117614986480018</v>
+        <v>5.117614986480017</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06533125514655352</v>
+        <v>0.06533125514655351</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.670155151718431</v>
+        <v>2.67015515171843</v>
       </c>
       <c r="H44" t="n">
         <v>27.34572644753638</v>
@@ -34366,16 +34366,16 @@
         <v>102.9411564866249</v>
       </c>
       <c r="J44" t="n">
-        <v>226.6260808081624</v>
+        <v>226.6260808081623</v>
       </c>
       <c r="K44" t="n">
-        <v>339.6537483804036</v>
+        <v>339.6537483804035</v>
       </c>
       <c r="L44" t="n">
-        <v>421.3705091048066</v>
+        <v>421.3705091048065</v>
       </c>
       <c r="M44" t="n">
-        <v>468.8558807841792</v>
+        <v>468.8558807841791</v>
       </c>
       <c r="N44" t="n">
         <v>476.4424591089992</v>
@@ -34384,10 +34384,10 @@
         <v>449.891103819099</v>
       </c>
       <c r="P44" t="n">
-        <v>383.9716485110503</v>
+        <v>383.9716485110502</v>
       </c>
       <c r="Q44" t="n">
-        <v>288.3467171401339</v>
+        <v>288.3467171401338</v>
       </c>
       <c r="R44" t="n">
         <v>167.729133549133</v>
@@ -34396,7 +34396,7 @@
         <v>60.84616051978379</v>
       </c>
       <c r="T44" t="n">
-        <v>11.68860417664744</v>
+        <v>11.68860417664743</v>
       </c>
       <c r="U44" t="n">
         <v>0.2136124121374744</v>
@@ -34439,16 +34439,16 @@
         <v>1.428658956884065</v>
       </c>
       <c r="H45" t="n">
-        <v>13.79783782043295</v>
+        <v>13.79783782043294</v>
       </c>
       <c r="I45" t="n">
-        <v>49.18847724359611</v>
+        <v>49.1884772435961</v>
       </c>
       <c r="J45" t="n">
         <v>134.9769411852616</v>
       </c>
       <c r="K45" t="n">
-        <v>230.697091296494</v>
+        <v>230.6970912964939</v>
       </c>
       <c r="L45" t="n">
         <v>310.2007090374809</v>
@@ -34457,28 +34457,28 @@
         <v>361.9895962245282</v>
       </c>
       <c r="N45" t="n">
-        <v>371.5703837029306</v>
+        <v>371.5703837029305</v>
       </c>
       <c r="O45" t="n">
         <v>339.9143089214468</v>
       </c>
       <c r="P45" t="n">
-        <v>272.8112002842914</v>
+        <v>272.8112002842913</v>
       </c>
       <c r="Q45" t="n">
         <v>182.3670626366396</v>
       </c>
       <c r="R45" t="n">
-        <v>88.70217628794225</v>
+        <v>88.70217628794224</v>
       </c>
       <c r="S45" t="n">
         <v>26.53671351931584</v>
       </c>
       <c r="T45" t="n">
-        <v>5.758498163931822</v>
+        <v>5.75849816393182</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09399072084763591</v>
+        <v>0.09399072084763589</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34524,7 +34524,7 @@
         <v>36.01929867079981</v>
       </c>
       <c r="J46" t="n">
-        <v>84.68019521245769</v>
+        <v>84.68019521245768</v>
       </c>
       <c r="K46" t="n">
         <v>139.1555734621588</v>
@@ -34542,22 +34542,22 @@
         <v>169.2950591697689</v>
       </c>
       <c r="P46" t="n">
-        <v>144.8611697449578</v>
+        <v>144.8611697449577</v>
       </c>
       <c r="Q46" t="n">
         <v>100.294365192484</v>
       </c>
       <c r="R46" t="n">
-        <v>53.85473132580888</v>
+        <v>53.85473132580887</v>
       </c>
       <c r="S46" t="n">
         <v>20.87333601932382</v>
       </c>
       <c r="T46" t="n">
-        <v>5.117614986480018</v>
+        <v>5.117614986480017</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06533125514655352</v>
+        <v>0.06533125514655351</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>6.598225711743296</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>6.876045741711437</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="O9" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,10 +35340,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="O10" t="n">
         <v>6.598225711743297</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>45.58017628147601</v>
+        <v>214.6767914535498</v>
       </c>
       <c r="K11" t="n">
-        <v>227.8758673282107</v>
+        <v>443.7093099065877</v>
       </c>
       <c r="L11" t="n">
         <v>603.2653086852697</v>
@@ -35419,19 +35419,19 @@
         <v>238.5096475569064</v>
       </c>
       <c r="N11" t="n">
-        <v>653.67157542599</v>
+        <v>247.0293955124083</v>
       </c>
       <c r="O11" t="n">
-        <v>600.5930736601576</v>
+        <v>219.7928923974123</v>
       </c>
       <c r="P11" t="n">
-        <v>152.7386527557807</v>
+        <v>325.0759499137693</v>
       </c>
       <c r="Q11" t="n">
-        <v>66.04102726568433</v>
+        <v>278.356017925589</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>17.86001560798331</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>357.3208893347136</v>
       </c>
       <c r="L12" t="n">
-        <v>542.4866745610659</v>
+        <v>171.6463292576067</v>
       </c>
       <c r="M12" t="n">
-        <v>219.8555623025098</v>
+        <v>653.67157542599</v>
       </c>
       <c r="N12" t="n">
-        <v>653.67157542599</v>
+        <v>240.2286716195972</v>
       </c>
       <c r="O12" t="n">
-        <v>289.410908319764</v>
+        <v>321.415375666199</v>
       </c>
       <c r="P12" t="n">
-        <v>138.8367928699611</v>
+        <v>457.2995615098982</v>
       </c>
       <c r="Q12" t="n">
         <v>252.4625762864672</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>36.67777568485187</v>
+        <v>36.67777568485179</v>
       </c>
       <c r="K13" t="n">
-        <v>162.2428422253429</v>
+        <v>162.2428422253428</v>
       </c>
       <c r="L13" t="n">
-        <v>251.018010293839</v>
+        <v>251.0180102938389</v>
       </c>
       <c r="M13" t="n">
-        <v>272.6917762995777</v>
+        <v>272.6917762995776</v>
       </c>
       <c r="N13" t="n">
         <v>272.7757692819513</v>
       </c>
       <c r="O13" t="n">
-        <v>239.2369476728755</v>
+        <v>239.2369476728754</v>
       </c>
       <c r="P13" t="n">
-        <v>187.4964895989182</v>
+        <v>187.4964895989181</v>
       </c>
       <c r="Q13" t="n">
-        <v>59.48908252985654</v>
+        <v>59.48908252985645</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,22 +35653,22 @@
         <v>603.2653086852697</v>
       </c>
       <c r="M14" t="n">
-        <v>688.0231810497389</v>
+        <v>238.5096475569064</v>
       </c>
       <c r="N14" t="n">
-        <v>247.0293955124083</v>
+        <v>364.8475895679455</v>
       </c>
       <c r="O14" t="n">
         <v>600.5930736601576</v>
       </c>
       <c r="P14" t="n">
-        <v>152.7386527557807</v>
+        <v>474.5373609272633</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.5993710517923</v>
+        <v>278.356017925589</v>
       </c>
       <c r="R14" t="n">
-        <v>17.86001560798331</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>8.139314518594915</v>
+        <v>134.2303498590038</v>
       </c>
       <c r="K15" t="n">
-        <v>181.7578659610703</v>
+        <v>357.3208893347136</v>
       </c>
       <c r="L15" t="n">
-        <v>171.6463292576067</v>
+        <v>542.4866745610659</v>
       </c>
       <c r="M15" t="n">
-        <v>685.5606260525097</v>
+        <v>219.8555623025098</v>
       </c>
       <c r="N15" t="n">
         <v>240.2286716195972</v>
       </c>
       <c r="O15" t="n">
-        <v>591.1803837537318</v>
+        <v>384.39104348622</v>
       </c>
       <c r="P15" t="n">
         <v>457.2995615098982</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>38.45674623914741</v>
+        <v>38.45674623914738</v>
       </c>
       <c r="K16" t="n">
-        <v>164.0218127796385</v>
+        <v>164.0218127796384</v>
       </c>
       <c r="L16" t="n">
         <v>252.7969808481345</v>
@@ -35817,13 +35817,13 @@
         <v>274.5547398362469</v>
       </c>
       <c r="O16" t="n">
-        <v>241.0159182271711</v>
+        <v>241.015918227171</v>
       </c>
       <c r="P16" t="n">
         <v>189.2754601532137</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.26805308415208</v>
+        <v>61.26805308415204</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>45.58017628147601</v>
+        <v>214.6767914535498</v>
       </c>
       <c r="K17" t="n">
         <v>443.7093099065877</v>
       </c>
       <c r="L17" t="n">
-        <v>603.2653086852697</v>
+        <v>185.6040941348193</v>
       </c>
       <c r="M17" t="n">
         <v>688.0231810497389</v>
       </c>
       <c r="N17" t="n">
-        <v>296.7456619070902</v>
+        <v>684.3763199243924</v>
       </c>
       <c r="O17" t="n">
-        <v>600.5930736601576</v>
+        <v>231.3520087533456</v>
       </c>
       <c r="P17" t="n">
         <v>474.5373609272633</v>
       </c>
       <c r="Q17" t="n">
-        <v>66.04102726568433</v>
+        <v>278.356017925589</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>17.86001560798331</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>8.139314518594915</v>
+        <v>134.2303498590038</v>
       </c>
       <c r="K18" t="n">
         <v>357.3208893347136</v>
       </c>
       <c r="L18" t="n">
-        <v>171.6463292576067</v>
+        <v>542.4866745610659</v>
       </c>
       <c r="M18" t="n">
-        <v>685.5606260525097</v>
+        <v>219.8555623025098</v>
       </c>
       <c r="N18" t="n">
-        <v>719.5710459631507</v>
+        <v>240.2286716195972</v>
       </c>
       <c r="O18" t="n">
-        <v>254.7377546764718</v>
+        <v>384.39104348622</v>
       </c>
       <c r="P18" t="n">
-        <v>138.8367928699611</v>
+        <v>457.2995615098982</v>
       </c>
       <c r="Q18" t="n">
         <v>252.4625762864672</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>7.762313482040876</v>
       </c>
       <c r="K19" t="n">
-        <v>124.6483951183158</v>
+        <v>116.8860816362759</v>
       </c>
       <c r="L19" t="n">
-        <v>313.1959827885531</v>
+        <v>205.661249704772</v>
       </c>
       <c r="M19" t="n">
         <v>227.3350157105107</v>
       </c>
       <c r="N19" t="n">
-        <v>227.4190086928844</v>
+        <v>334.9537417766654</v>
       </c>
       <c r="O19" t="n">
         <v>193.8801870838086</v>
       </c>
       <c r="P19" t="n">
-        <v>142.1397290098512</v>
+        <v>249.6744620936323</v>
       </c>
       <c r="Q19" t="n">
-        <v>121.6670550245707</v>
+        <v>14.13232194078957</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,25 +36118,25 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>45.58017628147601</v>
+        <v>214.6767914535498</v>
       </c>
       <c r="K20" t="n">
         <v>443.7093099065877</v>
       </c>
       <c r="L20" t="n">
-        <v>603.2653086852697</v>
+        <v>271.5699692479754</v>
       </c>
       <c r="M20" t="n">
         <v>688.0231810497389</v>
       </c>
       <c r="N20" t="n">
-        <v>684.3763199243924</v>
+        <v>247.0293955124083</v>
       </c>
       <c r="O20" t="n">
-        <v>219.7928923974123</v>
+        <v>600.5930736601576</v>
       </c>
       <c r="P20" t="n">
-        <v>255.3918935128027</v>
+        <v>474.5373609272633</v>
       </c>
       <c r="Q20" t="n">
         <v>278.356017925589</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>65.67555285407047</v>
+        <v>134.2303498590038</v>
       </c>
       <c r="K21" t="n">
         <v>357.3208893347136</v>
@@ -36206,7 +36206,7 @@
         <v>542.4866745610659</v>
       </c>
       <c r="M21" t="n">
-        <v>685.5606260525097</v>
+        <v>406.9285413117277</v>
       </c>
       <c r="N21" t="n">
         <v>240.2286716195972</v>
@@ -36218,7 +36218,7 @@
         <v>457.2995615098982</v>
       </c>
       <c r="Q21" t="n">
-        <v>42.38528855061807</v>
+        <v>252.4625762864672</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>98.85574817956602</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>133.327380022531</v>
+        <v>116.8860816362759</v>
       </c>
       <c r="L22" t="n">
         <v>205.661249704772</v>
@@ -36288,16 +36288,16 @@
         <v>227.3350157105107</v>
       </c>
       <c r="N22" t="n">
-        <v>227.4190086928844</v>
+        <v>334.9537417766654</v>
       </c>
       <c r="O22" t="n">
-        <v>193.8801870838086</v>
+        <v>301.4149201675896</v>
       </c>
       <c r="P22" t="n">
-        <v>249.6744620936324</v>
+        <v>142.1397290098512</v>
       </c>
       <c r="Q22" t="n">
-        <v>14.13232194078957</v>
+        <v>21.89463542283027</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>603.2653086852697</v>
       </c>
       <c r="M23" t="n">
-        <v>338.4678260044595</v>
+        <v>238.5096475569064</v>
       </c>
       <c r="N23" t="n">
-        <v>247.0293955124083</v>
+        <v>346.9875739599623</v>
       </c>
       <c r="O23" t="n">
         <v>600.5930736601576</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>134.2303498590038</v>
+        <v>8.139314518594915</v>
       </c>
       <c r="K24" t="n">
         <v>357.3208893347136</v>
       </c>
       <c r="L24" t="n">
-        <v>542.4866745610659</v>
+        <v>171.6463292576067</v>
       </c>
       <c r="M24" t="n">
-        <v>685.5606260525097</v>
+        <v>219.8555623025098</v>
       </c>
       <c r="N24" t="n">
-        <v>240.2286716195972</v>
+        <v>719.5710459631507</v>
       </c>
       <c r="O24" t="n">
-        <v>447.226036112007</v>
+        <v>401.9800497865348</v>
       </c>
       <c r="P24" t="n">
-        <v>138.8367928699611</v>
+        <v>457.2995615098982</v>
       </c>
       <c r="Q24" t="n">
-        <v>42.38528855061807</v>
+        <v>252.4625762864672</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,22 +36519,22 @@
         <v>116.8860816362759</v>
       </c>
       <c r="L25" t="n">
-        <v>213.4235631868117</v>
+        <v>213.4235631868129</v>
       </c>
       <c r="M25" t="n">
         <v>227.3350157105107</v>
       </c>
       <c r="N25" t="n">
-        <v>334.9537417766655</v>
+        <v>227.4190086928844</v>
       </c>
       <c r="O25" t="n">
-        <v>301.4149201675897</v>
+        <v>193.8801870838086</v>
       </c>
       <c r="P25" t="n">
-        <v>142.1397290098512</v>
+        <v>249.6744620936323</v>
       </c>
       <c r="Q25" t="n">
-        <v>14.13232194078957</v>
+        <v>121.6670550245706</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,13 +36601,13 @@
         <v>603.2653086852697</v>
       </c>
       <c r="M26" t="n">
-        <v>688.0231810497389</v>
+        <v>296.7245097661302</v>
       </c>
       <c r="N26" t="n">
         <v>684.3763199243924</v>
       </c>
       <c r="O26" t="n">
-        <v>227.1544179845322</v>
+        <v>600.5930736601576</v>
       </c>
       <c r="P26" t="n">
         <v>474.5373609272633</v>
@@ -36616,7 +36616,7 @@
         <v>278.356017925589</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>17.86001560798331</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>52.03824226051665</v>
+        <v>134.2303498590038</v>
       </c>
       <c r="K27" t="n">
-        <v>357.3208893347136</v>
+        <v>150.5315490672018</v>
       </c>
       <c r="L27" t="n">
         <v>542.4866745610659</v>
@@ -36683,16 +36683,16 @@
         <v>219.8555623025098</v>
       </c>
       <c r="N27" t="n">
-        <v>719.5710459631507</v>
+        <v>240.2286716195972</v>
       </c>
       <c r="O27" t="n">
-        <v>197.3180644770023</v>
+        <v>591.1803837537318</v>
       </c>
       <c r="P27" t="n">
         <v>457.2995615098982</v>
       </c>
       <c r="Q27" t="n">
-        <v>42.38528855061807</v>
+        <v>252.4625762864672</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.00700842149944</v>
+        <v>73.00700842149942</v>
       </c>
       <c r="K28" t="n">
         <v>198.5720749619905</v>
@@ -36771,7 +36771,7 @@
         <v>223.8257223355658</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.8183152665041</v>
+        <v>95.81831526650409</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>45.58017628147607</v>
+        <v>214.6767914535498</v>
       </c>
       <c r="K29" t="n">
         <v>443.7093099065877</v>
       </c>
       <c r="L29" t="n">
-        <v>603.2653086852698</v>
+        <v>603.2653086852697</v>
       </c>
       <c r="M29" t="n">
         <v>688.0231810497389</v>
@@ -36844,16 +36844,16 @@
         <v>684.3763199243924</v>
       </c>
       <c r="O29" t="n">
-        <v>600.5930736601576</v>
+        <v>558.3194734849088</v>
       </c>
       <c r="P29" t="n">
-        <v>297.4216833605876</v>
+        <v>152.7386527557807</v>
       </c>
       <c r="Q29" t="n">
-        <v>278.3560179255891</v>
+        <v>278.356017925589</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>17.86001560798331</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>52.03824226051665</v>
+        <v>134.2303498590038</v>
       </c>
       <c r="K30" t="n">
         <v>357.3208893347136</v>
@@ -36917,19 +36917,19 @@
         <v>542.4866745610659</v>
       </c>
       <c r="M30" t="n">
-        <v>219.8555623025099</v>
+        <v>219.8555623025098</v>
       </c>
       <c r="N30" t="n">
-        <v>719.5710459631508</v>
+        <v>240.2286716195972</v>
       </c>
       <c r="O30" t="n">
-        <v>197.3180644770024</v>
+        <v>384.39104348622</v>
       </c>
       <c r="P30" t="n">
-        <v>457.2995615098983</v>
+        <v>457.2995615098982</v>
       </c>
       <c r="Q30" t="n">
-        <v>42.38528855061813</v>
+        <v>252.4625762864672</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,7 +36990,7 @@
         <v>71.22803786720389</v>
       </c>
       <c r="K31" t="n">
-        <v>196.7931044076949</v>
+        <v>196.793104407695</v>
       </c>
       <c r="L31" t="n">
         <v>285.568272476191</v>
@@ -37072,22 +37072,22 @@
         <v>443.7093099065877</v>
       </c>
       <c r="L32" t="n">
-        <v>603.2653086852698</v>
+        <v>603.2653086852697</v>
       </c>
       <c r="M32" t="n">
-        <v>314.584525374113</v>
+        <v>688.0231810497389</v>
       </c>
       <c r="N32" t="n">
-        <v>684.3763199243924</v>
+        <v>310.9376642487669</v>
       </c>
       <c r="O32" t="n">
         <v>600.5930736601576</v>
       </c>
       <c r="P32" t="n">
-        <v>474.5373609272634</v>
+        <v>474.5373609272633</v>
       </c>
       <c r="Q32" t="n">
-        <v>278.3560179255891</v>
+        <v>278.356017925589</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>134.2303498590038</v>
       </c>
       <c r="K33" t="n">
-        <v>92.855652322135</v>
+        <v>357.3208893347136</v>
       </c>
       <c r="L33" t="n">
-        <v>542.4866745610659</v>
+        <v>250.2172792267302</v>
       </c>
       <c r="M33" t="n">
-        <v>595.9942276875133</v>
+        <v>219.8555623025098</v>
       </c>
       <c r="N33" t="n">
-        <v>240.2286716195973</v>
+        <v>719.5710459631507</v>
       </c>
       <c r="O33" t="n">
-        <v>591.1803837537319</v>
+        <v>197.3180644770023</v>
       </c>
       <c r="P33" t="n">
-        <v>138.8367928699611</v>
+        <v>457.2995615098982</v>
       </c>
       <c r="Q33" t="n">
         <v>252.4625762864672</v>
@@ -37227,7 +37227,7 @@
         <v>73.00700842149942</v>
       </c>
       <c r="K34" t="n">
-        <v>198.5720749619904</v>
+        <v>198.5720749619905</v>
       </c>
       <c r="L34" t="n">
         <v>287.3472430304865</v>
@@ -37309,25 +37309,25 @@
         <v>443.7093099065877</v>
       </c>
       <c r="L35" t="n">
-        <v>603.2653086852698</v>
+        <v>603.2653086852697</v>
       </c>
       <c r="M35" t="n">
-        <v>688.0231810497389</v>
+        <v>296.7245097661302</v>
       </c>
       <c r="N35" t="n">
-        <v>310.9376642487674</v>
+        <v>684.3763199243924</v>
       </c>
       <c r="O35" t="n">
         <v>600.5930736601576</v>
       </c>
       <c r="P35" t="n">
-        <v>474.5373609272634</v>
+        <v>474.5373609272633</v>
       </c>
       <c r="Q35" t="n">
-        <v>278.3560179255891</v>
+        <v>278.356017925589</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>17.86001560798331</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>542.4866745610659</v>
       </c>
       <c r="M36" t="n">
-        <v>219.8555623025099</v>
+        <v>219.8555623025098</v>
       </c>
       <c r="N36" t="n">
-        <v>243.5166190879341</v>
+        <v>240.2286716195972</v>
       </c>
       <c r="O36" t="n">
-        <v>591.1803837537319</v>
+        <v>384.39104348622</v>
       </c>
       <c r="P36" t="n">
-        <v>457.2995615098983</v>
+        <v>457.2995615098982</v>
       </c>
       <c r="Q36" t="n">
-        <v>42.38528855061813</v>
+        <v>252.4625762864672</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>73.00700842149941</v>
+        <v>73.00700842149942</v>
       </c>
       <c r="K37" t="n">
-        <v>198.5720749619904</v>
+        <v>198.5720749619905</v>
       </c>
       <c r="L37" t="n">
-        <v>287.3472430304865</v>
+        <v>287.3472430304863</v>
       </c>
       <c r="M37" t="n">
         <v>309.0210090362252</v>
@@ -37482,7 +37482,7 @@
         <v>223.8257223355658</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.81831526650407</v>
+        <v>95.81831526650409</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37543,13 @@
         <v>214.6767914535498</v>
       </c>
       <c r="K38" t="n">
-        <v>392.0693624024451</v>
+        <v>443.7093099065877</v>
       </c>
       <c r="L38" t="n">
-        <v>603.2653086852698</v>
+        <v>603.2653086852697</v>
       </c>
       <c r="M38" t="n">
-        <v>688.0231810497389</v>
+        <v>296.7245097661302</v>
       </c>
       <c r="N38" t="n">
         <v>684.3763199243924</v>
@@ -37558,13 +37558,13 @@
         <v>600.5930736601576</v>
       </c>
       <c r="P38" t="n">
-        <v>152.7386527557807</v>
+        <v>474.5373609272633</v>
       </c>
       <c r="Q38" t="n">
-        <v>278.3560179255891</v>
+        <v>278.356017925589</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>17.86001560798331</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8.139314518594944</v>
+        <v>134.2303498590038</v>
       </c>
       <c r="K39" t="n">
         <v>357.3208893347136</v>
@@ -37628,19 +37628,19 @@
         <v>542.4866745610659</v>
       </c>
       <c r="M39" t="n">
-        <v>219.8555623025099</v>
+        <v>219.8555623025098</v>
       </c>
       <c r="N39" t="n">
-        <v>719.5710459631508</v>
+        <v>240.2286716195972</v>
       </c>
       <c r="O39" t="n">
-        <v>559.679760858861</v>
+        <v>384.39104348622</v>
       </c>
       <c r="P39" t="n">
-        <v>138.8367928699611</v>
+        <v>457.2995615098982</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.38528855061813</v>
+        <v>252.4625762864672</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>73.00700842149941</v>
+        <v>73.00700842149942</v>
       </c>
       <c r="K40" t="n">
-        <v>198.5720749619904</v>
+        <v>198.5720749619905</v>
       </c>
       <c r="L40" t="n">
-        <v>287.3472430304867</v>
+        <v>287.3472430304865</v>
       </c>
       <c r="M40" t="n">
-        <v>309.0210090362252</v>
+        <v>309.021009036225</v>
       </c>
       <c r="N40" t="n">
         <v>309.1050020185989</v>
@@ -37719,7 +37719,7 @@
         <v>223.8257223355658</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.81831526650407</v>
+        <v>95.81831526650409</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>45.58017628147607</v>
+        <v>214.6767914535498</v>
       </c>
       <c r="K41" t="n">
         <v>443.7093099065877</v>
       </c>
       <c r="L41" t="n">
-        <v>603.2653086852698</v>
+        <v>603.2653086852697</v>
       </c>
       <c r="M41" t="n">
-        <v>688.0231810497389</v>
+        <v>296.7245097661302</v>
       </c>
       <c r="N41" t="n">
         <v>684.3763199243924</v>
@@ -37795,13 +37795,13 @@
         <v>600.5930736601576</v>
       </c>
       <c r="P41" t="n">
-        <v>464.650295475633</v>
+        <v>474.5373609272633</v>
       </c>
       <c r="Q41" t="n">
-        <v>66.04102726568439</v>
+        <v>278.356017925589</v>
       </c>
       <c r="R41" t="n">
-        <v>17.86001560798334</v>
+        <v>17.86001560798331</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>134.2303498590038</v>
       </c>
       <c r="K42" t="n">
-        <v>92.855652322135</v>
+        <v>357.3208893347136</v>
       </c>
       <c r="L42" t="n">
         <v>542.4866745610659</v>
       </c>
       <c r="M42" t="n">
-        <v>277.5314590475764</v>
+        <v>219.8555623025098</v>
       </c>
       <c r="N42" t="n">
-        <v>240.2286716195973</v>
+        <v>240.2286716195972</v>
       </c>
       <c r="O42" t="n">
-        <v>591.1803837537319</v>
+        <v>384.39104348622</v>
       </c>
       <c r="P42" t="n">
-        <v>457.2995615098983</v>
+        <v>457.2995615098982</v>
       </c>
       <c r="Q42" t="n">
         <v>252.4625762864672</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>73.00700842149941</v>
+        <v>73.00700842149944</v>
       </c>
       <c r="K43" t="n">
-        <v>198.5720749619904</v>
+        <v>198.5720749619905</v>
       </c>
       <c r="L43" t="n">
         <v>287.3472430304865</v>
@@ -37956,7 +37956,7 @@
         <v>223.8257223355658</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.81831526650424</v>
+        <v>95.81831526650379</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,28 +38017,28 @@
         <v>214.6767914535498</v>
       </c>
       <c r="K44" t="n">
-        <v>119.563897335423</v>
+        <v>443.7093099065877</v>
       </c>
       <c r="L44" t="n">
-        <v>603.2653086852698</v>
+        <v>603.2653086852697</v>
       </c>
       <c r="M44" t="n">
-        <v>688.0231810497389</v>
+        <v>296.7245097661302</v>
       </c>
       <c r="N44" t="n">
-        <v>617.2230612119489</v>
+        <v>684.3763199243924</v>
       </c>
       <c r="O44" t="n">
         <v>600.5930736601576</v>
       </c>
       <c r="P44" t="n">
-        <v>474.5373609272634</v>
+        <v>474.5373609272633</v>
       </c>
       <c r="Q44" t="n">
-        <v>278.3560179255891</v>
+        <v>278.356017925589</v>
       </c>
       <c r="R44" t="n">
-        <v>17.86001560798334</v>
+        <v>17.86001560798331</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,19 +38099,19 @@
         <v>357.3208893347136</v>
       </c>
       <c r="L45" t="n">
-        <v>188.4550391834908</v>
+        <v>542.4866745610659</v>
       </c>
       <c r="M45" t="n">
-        <v>685.5606260525099</v>
+        <v>219.8555623025098</v>
       </c>
       <c r="N45" t="n">
-        <v>240.2286716195973</v>
+        <v>240.2286716195972</v>
       </c>
       <c r="O45" t="n">
-        <v>591.1803837537319</v>
+        <v>384.39104348622</v>
       </c>
       <c r="P45" t="n">
-        <v>138.8367928699611</v>
+        <v>457.2995615098982</v>
       </c>
       <c r="Q45" t="n">
         <v>252.4625762864672</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>73.00700842149941</v>
+        <v>73.00700842149939</v>
       </c>
       <c r="K46" t="n">
         <v>198.5720749619904</v>
@@ -38184,16 +38184,16 @@
         <v>309.0210090362252</v>
       </c>
       <c r="N46" t="n">
-        <v>309.1050020185989</v>
+        <v>309.1050020185988</v>
       </c>
       <c r="O46" t="n">
-        <v>275.5661804095231</v>
+        <v>275.566180409523</v>
       </c>
       <c r="P46" t="n">
-        <v>223.8257223355658</v>
+        <v>223.8257223355657</v>
       </c>
       <c r="Q46" t="n">
-        <v>95.81831526650407</v>
+        <v>95.81831526650406</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
